--- a/file_checks/dataset_X_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/dataset_X_correct_genes_wrong_pheno.xlsx
@@ -563,7 +563,7 @@
     <t xml:space="preserve">RR_rorS_risk_high</t>
   </si>
   <si>
-    <t xml:space="preserve">XX_Endo</t>
+    <t xml:space="preserve">RR_Endo</t>
   </si>
 </sst>
 </file>
@@ -1451,535 +1451,535 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.00954015598795</v>
+        <v>-1.14337114726813</v>
       </c>
       <c r="B2" t="n">
-        <v>0.50999939860705</v>
+        <v>-1.09675936579724</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0955409554845098</v>
+        <v>-1.54756326976398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.172929584598284</v>
+        <v>-2.3896016871077</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0645921234846198</v>
+        <v>0.178120870842131</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.329825146155459</v>
+        <v>0.273738184493168</v>
       </c>
       <c r="G2" t="n">
-        <v>1.31365552646165</v>
+        <v>-0.503436556987895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.658448013085214</v>
+        <v>0.895654299351934</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.364057073650769</v>
+        <v>0.727197014709977</v>
       </c>
       <c r="J2" t="n">
-        <v>0.536443123847978</v>
+        <v>-0.551782217084822</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.197852177487141</v>
+        <v>-0.412174067194617</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.0475279420901</v>
+        <v>-0.724298177832096</v>
       </c>
       <c r="M2" t="n">
-        <v>1.48536934660808</v>
+        <v>-0.471461277313319</v>
       </c>
       <c r="N2" t="n">
-        <v>1.08738380102625</v>
+        <v>-0.831591022202987</v>
       </c>
       <c r="O2" t="n">
-        <v>0.628726433329434</v>
+        <v>-0.467026203568514</v>
       </c>
       <c r="P2" t="n">
-        <v>0.325130938706637</v>
+        <v>0.61011608414919</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.675842358238988</v>
+        <v>1.14420048703294</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0708919368941433</v>
+        <v>-0.885301981822404</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.727144353554168</v>
+        <v>1.47238471519506</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.44237734215816</v>
+        <v>0.29441833472699</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.11440869356154</v>
+        <v>0.126834046285603</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.647694661540672</v>
+        <v>-0.420302457293227</v>
       </c>
       <c r="W2" t="n">
-        <v>0.125077707497169</v>
+        <v>-2.55538442264048</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0105588663940647</v>
+        <v>-0.364546858892319</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.840185169659497</v>
+        <v>1.615320443707</v>
       </c>
       <c r="Z2" t="n">
-        <v>-2.05961581788777</v>
+        <v>0.403251442757841</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.47463879910356</v>
+        <v>-0.951754772747775</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.54434380168468</v>
+        <v>-0.898775606561945</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.32440663376459</v>
+        <v>-0.981401235281464</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.954888810088605</v>
+        <v>-2.26029075265663</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.68163342908179</v>
+        <v>-0.50020998021437</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.824886412705696</v>
+        <v>0.938427710080118</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.03297254827551</v>
+        <v>1.31815858231883</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.01398886194122</v>
+        <v>-0.492220013468991</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.01091340060902</v>
+        <v>-2.22608437409929</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.419649891601097</v>
+        <v>-0.434975972111357</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.156193942385691</v>
+        <v>1.12292094372027</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.953592790515458</v>
+        <v>-0.0536533282853581</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.797015527024465</v>
+        <v>-0.352165702602618</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.172413126849417</v>
+        <v>0.83214784744501</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.719631424600654</v>
+        <v>-0.763653613606436</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.161529290161203</v>
+        <v>0.788714134157069</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.399701304794523</v>
+        <v>0.0274456901728362</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.153040589433954</v>
+        <v>1.23293895762368</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.64952121078969</v>
+        <v>-0.317808991582341</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.221199842850916</v>
+        <v>-1.86891544007989</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.48944332173608</v>
+        <v>-2.13339270239654</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.416556642040966</v>
+        <v>-1.71992567585225</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.265209472835493</v>
+        <v>-0.506074009534298</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0419457663294781</v>
+        <v>1.71933492915831</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.770889887766621</v>
+        <v>-0.227604829941158</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.70218081201222</v>
+        <v>-1.19575246545986</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0612737414698256</v>
+        <v>-0.15426545430864</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.663697341931231</v>
+        <v>0.226327893603669</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.27330556625709</v>
+        <v>1.50030799066617</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0513955668316802</v>
+        <v>-0.633910888808712</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.10446543027482</v>
+        <v>-0.267552504201745</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.880856531851215</v>
+        <v>-0.951535557945965</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.296156568186472</v>
+        <v>0.0611984513262307</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.793736334145624</v>
+        <v>-1.07586413249471</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.36383015747317</v>
+        <v>-0.313406549834769</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.416100579486355</v>
+        <v>1.6080961885104</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.000989251133065082</v>
+        <v>0.231826800618223</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.30501198171658</v>
+        <v>1.86052585509851</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.171187596643829</v>
+        <v>-0.319911116353283</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.426324767464153</v>
+        <v>0.192443442627403</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.691877403672276</v>
+        <v>0.535353842048313</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0510059606647749</v>
+        <v>-1.20265252317635</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.103991141967801</v>
+        <v>-0.600280271035133</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.15232626922977</v>
+        <v>-1.19471088660524</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.960913617187</v>
+        <v>0.0916485118820541</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.544445632412732</v>
+        <v>-0.892935779983859</v>
       </c>
       <c r="BU2" t="n">
-        <v>-1.89740284636608</v>
+        <v>0.58918375252743</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.0825494471428</v>
+        <v>0.672028240724263</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.209813967544762</v>
+        <v>-0.362065256013129</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.298449060503835</v>
+        <v>0.888045909647884</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.324177400637739</v>
+        <v>0.325934936130947</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.03237736661247</v>
+        <v>-0.288313371546776</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.111974905501126</v>
+        <v>1.30485134291316</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.157301266016682</v>
+        <v>0.260637282061601</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.104364485455289</v>
+        <v>-0.50237978105126</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.372696022610794</v>
+        <v>-1.04905981810896</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.734350055922268</v>
+        <v>-1.48864928796429</v>
       </c>
       <c r="CF2" t="n">
-        <v>-1.62002970441745</v>
+        <v>-0.611669759519022</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.36489574105776</v>
+        <v>0.742657489736721</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.5771515057855</v>
+        <v>1.36129360117434</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.24205903738767</v>
+        <v>1.53676795678844</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.196131544797758</v>
+        <v>-0.722608394352346</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.589895329686397</v>
+        <v>-0.327293535719565</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.366274327700398</v>
+        <v>-0.760582527927412</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.323572065368386</v>
+        <v>2.24085393508616</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.45211490799595</v>
+        <v>-1.11179179348572</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.73939365096562</v>
+        <v>1.00604549335179</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.53765986669285</v>
+        <v>0.894288816336129</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.616375244290031</v>
+        <v>-1.77430691130409</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.465185852670452</v>
+        <v>-0.272539444245832</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.810389258357488</v>
+        <v>-0.2830897792488</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.332160378319632</v>
+        <v>-0.231536995339294</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.633535596353882</v>
+        <v>0.239676290610203</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.860800880052318</v>
+        <v>-0.711607135308139</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.481713421555609</v>
+        <v>-1.23643905535347</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.333557029923389</v>
+        <v>-0.285430550656212</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.35689260035182</v>
+        <v>-0.306110085252909</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.478818002549759</v>
+        <v>-0.16805071703104</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.829073215425274</v>
+        <v>1.5919649970373</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.41532219142785</v>
+        <v>-0.111300183100808</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.38395241975638</v>
+        <v>0.674511935713959</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.203761133235107</v>
+        <v>1.95930712393614</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.120694699450526</v>
+        <v>-0.738473509747686</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.630848384806954</v>
+        <v>-1.67355285585999</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.17727054587428</v>
+        <v>-0.0724325475416139</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.44738940403082</v>
+        <v>2.46071123720872</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.252766308699736</v>
+        <v>0.524705346182197</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.788741888476739</v>
+        <v>1.6300539661272</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.909502864110731</v>
+        <v>-1.70319551898523</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.20059297991345</v>
+        <v>-0.084533651358571</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.66469387331961</v>
+        <v>-1.52943097893524</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.221366060654905</v>
+        <v>-1.69594059598519</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0904103474620632</v>
+        <v>0.473949241921497</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.957924368209174</v>
+        <v>1.92291012121961</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.369047633084077</v>
+        <v>-0.721308643941363</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.79845383319947</v>
+        <v>-1.44756224468449</v>
       </c>
       <c r="DS2" t="n">
-        <v>-1.14225295459414</v>
+        <v>-2.15879466001232</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.66872611875785</v>
+        <v>-1.44029954883445</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.692667028230048</v>
+        <v>1.0755305440757</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.442036817231421</v>
+        <v>-0.9931061005048</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.0100794354682002</v>
+        <v>0.237646425561701</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.622382186209411</v>
+        <v>-0.256068021603959</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.26053847755495</v>
+        <v>-0.62511139300522</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.0285529733730445</v>
+        <v>0.118734617760792</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.529332775471367</v>
+        <v>-0.369758454976788</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.435955443974073</v>
+        <v>-0.842439398465467</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.111569906917181</v>
+        <v>-0.429654483952206</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.130349806528044</v>
+        <v>0.66535299323207</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.966790280488163</v>
+        <v>0.71565583363346</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.55038270030165</v>
+        <v>-0.769461429840132</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.309944108300439</v>
+        <v>0.72802734530271</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0532898900523656</v>
+        <v>0.00456249990492295</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.35837276118902</v>
+        <v>-0.203815327868683</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.843901743514185</v>
+        <v>-0.756114512819267</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.579861198584385</v>
+        <v>0.148499177487514</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.62570688002982</v>
+        <v>-0.913368200617582</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.170238693251304</v>
+        <v>-0.40558822631148</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.860873043642254</v>
+        <v>-0.151727306329837</v>
       </c>
       <c r="EO2" t="n">
-        <v>-1.43206002792546</v>
+        <v>-0.568165966440371</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.211998083428819</v>
+        <v>-0.543590712789474</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.56662680231883</v>
+        <v>-0.0127163559658742</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.952651587545989</v>
+        <v>0.242435005390299</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.86440561126036</v>
+        <v>-1.26220372121185</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0880721765851822</v>
+        <v>-0.254328853133305</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.0649653962865</v>
+        <v>-0.432129569702025</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.199099853603624</v>
+        <v>0.249354943404507</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.752984649406684</v>
+        <v>0.000708481089921403</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.35615318159726</v>
+        <v>0.867038812166986</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.885863537110817</v>
+        <v>0.399357385294046</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.686130700772009</v>
+        <v>-1.27576140832725</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.931839268215722</v>
+        <v>-1.20268008843401</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.572679077524539</v>
+        <v>-0.743762226600822</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.572832952316459</v>
+        <v>1.57293038357721</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.00789502538169</v>
+        <v>0.0202260387600452</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.527457554721478</v>
+        <v>-0.0623739549391701</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.444748646965426</v>
+        <v>0.968348995098664</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.359076624873712</v>
+        <v>0.92327181612025</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.848635144142556</v>
+        <v>0.116834243066777</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.464972759462262</v>
+        <v>0.387648534642926</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.871464989002183</v>
+        <v>0.942303592163285</v>
       </c>
       <c r="FK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>1</v>
       </c>
       <c r="FO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP2" t="n">
         <v>0</v>
       </c>
-      <c r="FP2" t="n">
-        <v>1</v>
-      </c>
       <c r="FQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
         <v>1</v>
       </c>
       <c r="FS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
         <v>0</v>
       </c>
       <c r="FU2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>1</v>
@@ -1994,546 +1994,546 @@
         <v>1</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.00954015598795</v>
+        <v>-1.14337114726813</v>
       </c>
       <c r="B3" t="n">
-        <v>0.50999939860705</v>
+        <v>-1.09675936579724</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0955409554845098</v>
+        <v>-1.54756326976398</v>
       </c>
       <c r="D3" t="n">
-        <v>0.172929584598284</v>
+        <v>-2.3896016871077</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0645921234846198</v>
+        <v>0.178120870842131</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.329825146155459</v>
+        <v>0.273738184493168</v>
       </c>
       <c r="G3" t="n">
-        <v>1.31365552646165</v>
+        <v>-0.503436556987895</v>
       </c>
       <c r="H3" t="n">
-        <v>0.658448013085214</v>
+        <v>0.895654299351934</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.364057073650769</v>
+        <v>0.727197014709977</v>
       </c>
       <c r="J3" t="n">
-        <v>0.536443123847978</v>
+        <v>-0.551782217084822</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.197852177487141</v>
+        <v>-0.412174067194617</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.0475279420901</v>
+        <v>-0.724298177832096</v>
       </c>
       <c r="M3" t="n">
-        <v>1.48536934660808</v>
+        <v>-0.471461277313319</v>
       </c>
       <c r="N3" t="n">
-        <v>1.08738380102625</v>
+        <v>-0.831591022202987</v>
       </c>
       <c r="O3" t="n">
-        <v>0.628726433329434</v>
+        <v>-0.467026203568514</v>
       </c>
       <c r="P3" t="n">
-        <v>0.325130938706637</v>
+        <v>0.61011608414919</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.675842358238988</v>
+        <v>1.14420048703294</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0708919368941433</v>
+        <v>-0.885301981822404</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.727144353554168</v>
+        <v>1.47238471519506</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.44237734215816</v>
+        <v>0.29441833472699</v>
       </c>
       <c r="U3" t="n">
-        <v>-1.11440869356154</v>
+        <v>0.126834046285603</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.647694661540672</v>
+        <v>-0.420302457293227</v>
       </c>
       <c r="W3" t="n">
-        <v>0.125077707497169</v>
+        <v>-2.55538442264048</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.0105588663940647</v>
+        <v>-0.364546858892319</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.840185169659497</v>
+        <v>1.615320443707</v>
       </c>
       <c r="Z3" t="n">
-        <v>-2.05961581788777</v>
+        <v>0.403251442757841</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.47463879910356</v>
+        <v>-0.951754772747775</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.54434380168468</v>
+        <v>-0.898775606561945</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.32440663376459</v>
+        <v>-0.981401235281464</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.954888810088605</v>
+        <v>-2.26029075265663</v>
       </c>
       <c r="AE3" t="n">
-        <v>-1.68163342908179</v>
+        <v>-0.50020998021437</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.824886412705696</v>
+        <v>0.938427710080118</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.03297254827551</v>
+        <v>1.31815858231883</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.01398886194122</v>
+        <v>-0.492220013468991</v>
       </c>
       <c r="AI3" t="n">
-        <v>-1.01091340060902</v>
+        <v>-2.22608437409929</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.419649891601097</v>
+        <v>-0.434975972111357</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.156193942385691</v>
+        <v>1.12292094372027</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.953592790515458</v>
+        <v>-0.0536533282853581</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.797015527024465</v>
+        <v>-0.352165702602618</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.172413126849417</v>
+        <v>0.83214784744501</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.719631424600654</v>
+        <v>-0.763653613606436</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.161529290161203</v>
+        <v>0.788714134157069</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.399701304794523</v>
+        <v>0.0274456901728362</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.153040589433954</v>
+        <v>1.23293895762368</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.64952121078969</v>
+        <v>-0.317808991582341</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.221199842850916</v>
+        <v>-1.86891544007989</v>
       </c>
       <c r="AU3" t="n">
-        <v>-1.48944332173608</v>
+        <v>-2.13339270239654</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.416556642040966</v>
+        <v>-1.71992567585225</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.265209472835493</v>
+        <v>-0.506074009534298</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.0419457663294781</v>
+        <v>1.71933492915831</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.770889887766621</v>
+        <v>-0.227604829941158</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-1.70218081201222</v>
+        <v>-1.19575246545986</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0612737414698256</v>
+        <v>-0.15426545430864</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.663697341931231</v>
+        <v>0.226327893603669</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.27330556625709</v>
+        <v>1.50030799066617</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0513955668316802</v>
+        <v>-0.633910888808712</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.10446543027482</v>
+        <v>-0.267552504201745</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.880856531851215</v>
+        <v>-0.951535557945965</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.296156568186472</v>
+        <v>0.0611984513262307</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.793736334145624</v>
+        <v>-1.07586413249471</v>
       </c>
       <c r="BI3" t="n">
-        <v>-1.36383015747317</v>
+        <v>-0.313406549834769</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.416100579486355</v>
+        <v>1.6080961885104</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.000989251133065082</v>
+        <v>0.231826800618223</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.30501198171658</v>
+        <v>1.86052585509851</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.171187596643829</v>
+        <v>-0.319911116353283</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.426324767464153</v>
+        <v>0.192443442627403</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.691877403672276</v>
+        <v>0.535353842048313</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0510059606647749</v>
+        <v>-1.20265252317635</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.103991141967801</v>
+        <v>-0.600280271035133</v>
       </c>
       <c r="BR3" t="n">
-        <v>-1.15232626922977</v>
+        <v>-1.19471088660524</v>
       </c>
       <c r="BS3" t="n">
-        <v>-1.960913617187</v>
+        <v>0.0916485118820541</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.544445632412732</v>
+        <v>-0.892935779983859</v>
       </c>
       <c r="BU3" t="n">
-        <v>-1.89740284636608</v>
+        <v>0.58918375252743</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.0825494471428</v>
+        <v>0.672028240724263</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.209813967544762</v>
+        <v>-0.362065256013129</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.298449060503835</v>
+        <v>0.888045909647884</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.324177400637739</v>
+        <v>0.325934936130947</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.03237736661247</v>
+        <v>-0.288313371546776</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.111974905501126</v>
+        <v>1.30485134291316</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.157301266016682</v>
+        <v>0.260637282061601</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.104364485455289</v>
+        <v>-0.50237978105126</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.372696022610794</v>
+        <v>-1.04905981810896</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.734350055922268</v>
+        <v>-1.48864928796429</v>
       </c>
       <c r="CF3" t="n">
-        <v>-1.62002970441745</v>
+        <v>-0.611669759519022</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.36489574105776</v>
+        <v>0.742657489736721</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.5771515057855</v>
+        <v>1.36129360117434</v>
       </c>
       <c r="CI3" t="n">
-        <v>-1.24205903738767</v>
+        <v>1.53676795678844</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.196131544797758</v>
+        <v>-0.722608394352346</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.589895329686397</v>
+        <v>-0.327293535719565</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.366274327700398</v>
+        <v>-0.760582527927412</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.323572065368386</v>
+        <v>2.24085393508616</v>
       </c>
       <c r="CN3" t="n">
-        <v>-1.45211490799595</v>
+        <v>-1.11179179348572</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.73939365096562</v>
+        <v>1.00604549335179</v>
       </c>
       <c r="CP3" t="n">
-        <v>-1.53765986669285</v>
+        <v>0.894288816336129</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.616375244290031</v>
+        <v>-1.77430691130409</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.465185852670452</v>
+        <v>-0.272539444245832</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.810389258357488</v>
+        <v>-0.2830897792488</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.332160378319632</v>
+        <v>-0.231536995339294</v>
       </c>
       <c r="CU3" t="n">
-        <v>-0.633535596353882</v>
+        <v>0.239676290610203</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.860800880052318</v>
+        <v>-0.711607135308139</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.481713421555609</v>
+        <v>-1.23643905535347</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.333557029923389</v>
+        <v>-0.285430550656212</v>
       </c>
       <c r="CY3" t="n">
-        <v>-1.35689260035182</v>
+        <v>-0.306110085252909</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.478818002549759</v>
+        <v>-0.16805071703104</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.829073215425274</v>
+        <v>1.5919649970373</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.41532219142785</v>
+        <v>-0.111300183100808</v>
       </c>
       <c r="DC3" t="n">
-        <v>-1.38395241975638</v>
+        <v>0.674511935713959</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.203761133235107</v>
+        <v>1.95930712393614</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.120694699450526</v>
+        <v>-0.738473509747686</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.630848384806954</v>
+        <v>-1.67355285585999</v>
       </c>
       <c r="DG3" t="n">
-        <v>1.17727054587428</v>
+        <v>-0.0724325475416139</v>
       </c>
       <c r="DH3" t="n">
-        <v>1.44738940403082</v>
+        <v>2.46071123720872</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.252766308699736</v>
+        <v>0.524705346182197</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0.788741888476739</v>
+        <v>1.6300539661272</v>
       </c>
       <c r="DK3" t="n">
-        <v>-0.909502864110731</v>
+        <v>-1.70319551898523</v>
       </c>
       <c r="DL3" t="n">
-        <v>2.20059297991345</v>
+        <v>-0.084533651358571</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.66469387331961</v>
+        <v>-1.52943097893524</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0.221366060654905</v>
+        <v>-1.69594059598519</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0.0904103474620632</v>
+        <v>0.473949241921497</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.957924368209174</v>
+        <v>1.92291012121961</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.369047633084077</v>
+        <v>-0.721308643941363</v>
       </c>
       <c r="DR3" t="n">
-        <v>-1.79845383319947</v>
+        <v>-1.44756224468449</v>
       </c>
       <c r="DS3" t="n">
-        <v>-1.14225295459414</v>
+        <v>-2.15879466001232</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.66872611875785</v>
+        <v>-1.44029954883445</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.692667028230048</v>
+        <v>1.0755305440757</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.442036817231421</v>
+        <v>-0.9931061005048</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.0100794354682002</v>
+        <v>0.237646425561701</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.622382186209411</v>
+        <v>-0.256068021603959</v>
       </c>
       <c r="DY3" t="n">
-        <v>-1.26053847755495</v>
+        <v>-0.62511139300522</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0285529733730445</v>
+        <v>0.118734617760792</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.529332775471367</v>
+        <v>-0.369758454976788</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0.435955443974073</v>
+        <v>-0.842439398465467</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.111569906917181</v>
+        <v>-0.429654483952206</v>
       </c>
       <c r="ED3" t="n">
-        <v>-0.130349806528044</v>
+        <v>0.66535299323207</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.966790280488163</v>
+        <v>0.71565583363346</v>
       </c>
       <c r="EF3" t="n">
-        <v>1.55038270030165</v>
+        <v>-0.769461429840132</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.309944108300439</v>
+        <v>0.72802734530271</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0532898900523656</v>
+        <v>0.00456249990492295</v>
       </c>
       <c r="EI3" t="n">
-        <v>-1.35837276118902</v>
+        <v>-0.203815327868683</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.843901743514185</v>
+        <v>-0.756114512819267</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.579861198584385</v>
+        <v>0.148499177487514</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.62570688002982</v>
+        <v>-0.913368200617582</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.170238693251304</v>
+        <v>-0.40558822631148</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.860873043642254</v>
+        <v>-0.151727306329837</v>
       </c>
       <c r="EO3" t="n">
-        <v>-1.43206002792546</v>
+        <v>-0.568165966440371</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.211998083428819</v>
+        <v>-0.543590712789474</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.56662680231883</v>
+        <v>-0.0127163559658742</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0.952651587545989</v>
+        <v>0.242435005390299</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.86440561126036</v>
+        <v>-1.26220372121185</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0880721765851822</v>
+        <v>-0.254328853133305</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.0649653962865</v>
+        <v>-0.432129569702025</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.199099853603624</v>
+        <v>0.249354943404507</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.752984649406684</v>
+        <v>0.000708481089921403</v>
       </c>
       <c r="EX3" t="n">
-        <v>-1.35615318159726</v>
+        <v>0.867038812166986</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0.885863537110817</v>
+        <v>0.399357385294046</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-0.686130700772009</v>
+        <v>-1.27576140832725</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0.931839268215722</v>
+        <v>-1.20268008843401</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.572679077524539</v>
+        <v>-0.743762226600822</v>
       </c>
       <c r="FC3" t="n">
-        <v>-0.572832952316459</v>
+        <v>1.57293038357721</v>
       </c>
       <c r="FD3" t="n">
-        <v>-1.00789502538169</v>
+        <v>0.0202260387600452</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.527457554721478</v>
+        <v>-0.0623739549391701</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.444748646965426</v>
+        <v>0.968348995098664</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.359076624873712</v>
+        <v>0.92327181612025</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0.848635144142556</v>
+        <v>0.116834243066777</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.464972759462262</v>
+        <v>0.387648534642926</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.871464989002183</v>
+        <v>0.942303592163285</v>
       </c>
       <c r="FK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>1</v>
       </c>
       <c r="FO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP3" t="n">
         <v>0</v>
       </c>
-      <c r="FP3" t="n">
-        <v>1</v>
-      </c>
       <c r="FQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
         <v>1</v>
       </c>
       <c r="FS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
         <v>0</v>
       </c>
       <c r="FU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
         <v>1</v>
@@ -2548,546 +2548,546 @@
         <v>1</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.00954015598795</v>
+        <v>-1.14337114726813</v>
       </c>
       <c r="B4" t="n">
-        <v>0.50999939860705</v>
+        <v>-1.09675936579724</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0955409554845098</v>
+        <v>-1.54756326976398</v>
       </c>
       <c r="D4" t="n">
-        <v>0.172929584598284</v>
+        <v>-2.3896016871077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0645921234846198</v>
+        <v>0.178120870842131</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.329825146155459</v>
+        <v>0.273738184493168</v>
       </c>
       <c r="G4" t="n">
-        <v>1.31365552646165</v>
+        <v>-0.503436556987895</v>
       </c>
       <c r="H4" t="n">
-        <v>0.658448013085214</v>
+        <v>0.895654299351934</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.364057073650769</v>
+        <v>0.727197014709977</v>
       </c>
       <c r="J4" t="n">
-        <v>0.536443123847978</v>
+        <v>-0.551782217084822</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.197852177487141</v>
+        <v>-0.412174067194617</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.0475279420901</v>
+        <v>-0.724298177832096</v>
       </c>
       <c r="M4" t="n">
-        <v>1.48536934660808</v>
+        <v>-0.471461277313319</v>
       </c>
       <c r="N4" t="n">
-        <v>1.08738380102625</v>
+        <v>-0.831591022202987</v>
       </c>
       <c r="O4" t="n">
-        <v>0.628726433329434</v>
+        <v>-0.467026203568514</v>
       </c>
       <c r="P4" t="n">
-        <v>0.325130938706637</v>
+        <v>0.61011608414919</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.675842358238988</v>
+        <v>1.14420048703294</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0708919368941433</v>
+        <v>-0.885301981822404</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.727144353554168</v>
+        <v>1.47238471519506</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.44237734215816</v>
+        <v>0.29441833472699</v>
       </c>
       <c r="U4" t="n">
-        <v>-1.11440869356154</v>
+        <v>0.126834046285603</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.647694661540672</v>
+        <v>-0.420302457293227</v>
       </c>
       <c r="W4" t="n">
-        <v>0.125077707497169</v>
+        <v>-2.55538442264048</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.0105588663940647</v>
+        <v>-0.364546858892319</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.840185169659497</v>
+        <v>1.615320443707</v>
       </c>
       <c r="Z4" t="n">
-        <v>-2.05961581788777</v>
+        <v>0.403251442757841</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.47463879910356</v>
+        <v>-0.951754772747775</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.54434380168468</v>
+        <v>-0.898775606561945</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.32440663376459</v>
+        <v>-0.981401235281464</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.954888810088605</v>
+        <v>-2.26029075265663</v>
       </c>
       <c r="AE4" t="n">
-        <v>-1.68163342908179</v>
+        <v>-0.50020998021437</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.824886412705696</v>
+        <v>0.938427710080118</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.03297254827551</v>
+        <v>1.31815858231883</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.01398886194122</v>
+        <v>-0.492220013468991</v>
       </c>
       <c r="AI4" t="n">
-        <v>-1.01091340060902</v>
+        <v>-2.22608437409929</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.419649891601097</v>
+        <v>-0.434975972111357</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.156193942385691</v>
+        <v>1.12292094372027</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.953592790515458</v>
+        <v>-0.0536533282853581</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.797015527024465</v>
+        <v>-0.352165702602618</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.172413126849417</v>
+        <v>0.83214784744501</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.719631424600654</v>
+        <v>-0.763653613606436</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.161529290161203</v>
+        <v>0.788714134157069</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.399701304794523</v>
+        <v>0.0274456901728362</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.153040589433954</v>
+        <v>1.23293895762368</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.64952121078969</v>
+        <v>-0.317808991582341</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.221199842850916</v>
+        <v>-1.86891544007989</v>
       </c>
       <c r="AU4" t="n">
-        <v>-1.48944332173608</v>
+        <v>-2.13339270239654</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.416556642040966</v>
+        <v>-1.71992567585225</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.265209472835493</v>
+        <v>-0.506074009534298</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0419457663294781</v>
+        <v>1.71933492915831</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.770889887766621</v>
+        <v>-0.227604829941158</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-1.70218081201222</v>
+        <v>-1.19575246545986</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.0612737414698256</v>
+        <v>-0.15426545430864</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.663697341931231</v>
+        <v>0.226327893603669</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.27330556625709</v>
+        <v>1.50030799066617</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0513955668316802</v>
+        <v>-0.633910888808712</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.10446543027482</v>
+        <v>-0.267552504201745</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.880856531851215</v>
+        <v>-0.951535557945965</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.296156568186472</v>
+        <v>0.0611984513262307</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.793736334145624</v>
+        <v>-1.07586413249471</v>
       </c>
       <c r="BI4" t="n">
-        <v>-1.36383015747317</v>
+        <v>-0.313406549834769</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.416100579486355</v>
+        <v>1.6080961885104</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.000989251133065082</v>
+        <v>0.231826800618223</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.30501198171658</v>
+        <v>1.86052585509851</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.171187596643829</v>
+        <v>-0.319911116353283</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.426324767464153</v>
+        <v>0.192443442627403</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.691877403672276</v>
+        <v>0.535353842048313</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0510059606647749</v>
+        <v>-1.20265252317635</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.103991141967801</v>
+        <v>-0.600280271035133</v>
       </c>
       <c r="BR4" t="n">
-        <v>-1.15232626922977</v>
+        <v>-1.19471088660524</v>
       </c>
       <c r="BS4" t="n">
-        <v>-1.960913617187</v>
+        <v>0.0916485118820541</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.544445632412732</v>
+        <v>-0.892935779983859</v>
       </c>
       <c r="BU4" t="n">
-        <v>-1.89740284636608</v>
+        <v>0.58918375252743</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.0825494471428</v>
+        <v>0.672028240724263</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.209813967544762</v>
+        <v>-0.362065256013129</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.298449060503835</v>
+        <v>0.888045909647884</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.324177400637739</v>
+        <v>0.325934936130947</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.03237736661247</v>
+        <v>-0.288313371546776</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.111974905501126</v>
+        <v>1.30485134291316</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.157301266016682</v>
+        <v>0.260637282061601</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.104364485455289</v>
+        <v>-0.50237978105126</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.372696022610794</v>
+        <v>-1.04905981810896</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.734350055922268</v>
+        <v>-1.48864928796429</v>
       </c>
       <c r="CF4" t="n">
-        <v>-1.62002970441745</v>
+        <v>-0.611669759519022</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.36489574105776</v>
+        <v>0.742657489736721</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.5771515057855</v>
+        <v>1.36129360117434</v>
       </c>
       <c r="CI4" t="n">
-        <v>-1.24205903738767</v>
+        <v>1.53676795678844</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.196131544797758</v>
+        <v>-0.722608394352346</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.589895329686397</v>
+        <v>-0.327293535719565</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.366274327700398</v>
+        <v>-0.760582527927412</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.323572065368386</v>
+        <v>2.24085393508616</v>
       </c>
       <c r="CN4" t="n">
-        <v>-1.45211490799595</v>
+        <v>-1.11179179348572</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.73939365096562</v>
+        <v>1.00604549335179</v>
       </c>
       <c r="CP4" t="n">
-        <v>-1.53765986669285</v>
+        <v>0.894288816336129</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.616375244290031</v>
+        <v>-1.77430691130409</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.465185852670452</v>
+        <v>-0.272539444245832</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.810389258357488</v>
+        <v>-0.2830897792488</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.332160378319632</v>
+        <v>-0.231536995339294</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.633535596353882</v>
+        <v>0.239676290610203</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.860800880052318</v>
+        <v>-0.711607135308139</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.481713421555609</v>
+        <v>-1.23643905535347</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.333557029923389</v>
+        <v>-0.285430550656212</v>
       </c>
       <c r="CY4" t="n">
-        <v>-1.35689260035182</v>
+        <v>-0.306110085252909</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.478818002549759</v>
+        <v>-0.16805071703104</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.829073215425274</v>
+        <v>1.5919649970373</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.41532219142785</v>
+        <v>-0.111300183100808</v>
       </c>
       <c r="DC4" t="n">
-        <v>-1.38395241975638</v>
+        <v>0.674511935713959</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.203761133235107</v>
+        <v>1.95930712393614</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.120694699450526</v>
+        <v>-0.738473509747686</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.630848384806954</v>
+        <v>-1.67355285585999</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.17727054587428</v>
+        <v>-0.0724325475416139</v>
       </c>
       <c r="DH4" t="n">
-        <v>1.44738940403082</v>
+        <v>2.46071123720872</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.252766308699736</v>
+        <v>0.524705346182197</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0.788741888476739</v>
+        <v>1.6300539661272</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0.909502864110731</v>
+        <v>-1.70319551898523</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.20059297991345</v>
+        <v>-0.084533651358571</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.66469387331961</v>
+        <v>-1.52943097893524</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0.221366060654905</v>
+        <v>-1.69594059598519</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.0904103474620632</v>
+        <v>0.473949241921497</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.957924368209174</v>
+        <v>1.92291012121961</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.369047633084077</v>
+        <v>-0.721308643941363</v>
       </c>
       <c r="DR4" t="n">
-        <v>-1.79845383319947</v>
+        <v>-1.44756224468449</v>
       </c>
       <c r="DS4" t="n">
-        <v>-1.14225295459414</v>
+        <v>-2.15879466001232</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.66872611875785</v>
+        <v>-1.44029954883445</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.692667028230048</v>
+        <v>1.0755305440757</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.442036817231421</v>
+        <v>-0.9931061005048</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.0100794354682002</v>
+        <v>0.237646425561701</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.622382186209411</v>
+        <v>-0.256068021603959</v>
       </c>
       <c r="DY4" t="n">
-        <v>-1.26053847755495</v>
+        <v>-0.62511139300522</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0285529733730445</v>
+        <v>0.118734617760792</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.529332775471367</v>
+        <v>-0.369758454976788</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.435955443974073</v>
+        <v>-0.842439398465467</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.111569906917181</v>
+        <v>-0.429654483952206</v>
       </c>
       <c r="ED4" t="n">
-        <v>-0.130349806528044</v>
+        <v>0.66535299323207</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.966790280488163</v>
+        <v>0.71565583363346</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.55038270030165</v>
+        <v>-0.769461429840132</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.309944108300439</v>
+        <v>0.72802734530271</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0532898900523656</v>
+        <v>0.00456249990492295</v>
       </c>
       <c r="EI4" t="n">
-        <v>-1.35837276118902</v>
+        <v>-0.203815327868683</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.843901743514185</v>
+        <v>-0.756114512819267</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.579861198584385</v>
+        <v>0.148499177487514</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.62570688002982</v>
+        <v>-0.913368200617582</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.170238693251304</v>
+        <v>-0.40558822631148</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.860873043642254</v>
+        <v>-0.151727306329837</v>
       </c>
       <c r="EO4" t="n">
-        <v>-1.43206002792546</v>
+        <v>-0.568165966440371</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.211998083428819</v>
+        <v>-0.543590712789474</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.56662680231883</v>
+        <v>-0.0127163559658742</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.952651587545989</v>
+        <v>0.242435005390299</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.86440561126036</v>
+        <v>-1.26220372121185</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0880721765851822</v>
+        <v>-0.254328853133305</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.0649653962865</v>
+        <v>-0.432129569702025</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.199099853603624</v>
+        <v>0.249354943404507</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.752984649406684</v>
+        <v>0.000708481089921403</v>
       </c>
       <c r="EX4" t="n">
-        <v>-1.35615318159726</v>
+        <v>0.867038812166986</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.885863537110817</v>
+        <v>0.399357385294046</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-0.686130700772009</v>
+        <v>-1.27576140832725</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0.931839268215722</v>
+        <v>-1.20268008843401</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.572679077524539</v>
+        <v>-0.743762226600822</v>
       </c>
       <c r="FC4" t="n">
-        <v>-0.572832952316459</v>
+        <v>1.57293038357721</v>
       </c>
       <c r="FD4" t="n">
-        <v>-1.00789502538169</v>
+        <v>0.0202260387600452</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.527457554721478</v>
+        <v>-0.0623739549391701</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.444748646965426</v>
+        <v>0.968348995098664</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.359076624873712</v>
+        <v>0.92327181612025</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.848635144142556</v>
+        <v>0.116834243066777</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.464972759462262</v>
+        <v>0.387648534642926</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.871464989002183</v>
+        <v>0.942303592163285</v>
       </c>
       <c r="FK4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>1</v>
       </c>
       <c r="FO4" t="n">
+        <v>1</v>
+      </c>
+      <c r="FP4" t="n">
         <v>0</v>
       </c>
-      <c r="FP4" t="n">
-        <v>1</v>
-      </c>
       <c r="FQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR4" t="n">
         <v>1</v>
       </c>
       <c r="FS4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
       </c>
       <c r="FU4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
         <v>1</v>
@@ -3102,13 +3102,13 @@
         <v>1</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/file_checks/dataset_X_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/dataset_X_correct_genes_wrong_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">X_1017</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">RR_rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">RR_Endo</t>
@@ -1448,505 +1457,514 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.14337114726813</v>
+        <v>-0.411392979671012</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.09675936579724</v>
+        <v>-0.683782397721073</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.54756326976398</v>
+        <v>0.246767566095448</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.3896016871077</v>
+        <v>0.289783190465829</v>
       </c>
       <c r="E2" t="n">
-        <v>0.178120870842131</v>
+        <v>0.819083546032101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.273738184493168</v>
+        <v>0.682940955405569</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.503436556987895</v>
+        <v>1.46725657434548</v>
       </c>
       <c r="H2" t="n">
-        <v>0.895654299351934</v>
+        <v>-0.463798588928585</v>
       </c>
       <c r="I2" t="n">
-        <v>0.727197014709977</v>
+        <v>0.0944341434076045</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.551782217084822</v>
+        <v>-1.29821053011125</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.412174067194617</v>
+        <v>1.83973677938932</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.724298177832096</v>
+        <v>-1.10520086631194</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.471461277313319</v>
+        <v>-0.967289912119135</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.831591022202987</v>
+        <v>0.971657762130297</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.467026203568514</v>
+        <v>-0.845331642025496</v>
       </c>
       <c r="P2" t="n">
-        <v>0.61011608414919</v>
+        <v>-0.910908740480939</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.14420048703294</v>
+        <v>-0.252078540269054</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.885301981822404</v>
+        <v>1.41189210352178</v>
       </c>
       <c r="S2" t="n">
-        <v>1.47238471519506</v>
+        <v>-0.696465671410467</v>
       </c>
       <c r="T2" t="n">
-        <v>0.29441833472699</v>
+        <v>-0.159101433232435</v>
       </c>
       <c r="U2" t="n">
-        <v>0.126834046285603</v>
+        <v>-0.810592157303737</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.420302457293227</v>
+        <v>0.577005504695685</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.55538442264048</v>
+        <v>0.122276711038231</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.364546858892319</v>
+        <v>0.719186797970971</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.615320443707</v>
+        <v>-0.417160558386132</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.403251442757841</v>
+        <v>-0.422954671214157</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.951754772747775</v>
+        <v>1.30995512325777</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.898775606561945</v>
+        <v>-0.308916814664123</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.981401235281464</v>
+        <v>0.424643507444538</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2.26029075265663</v>
+        <v>-0.276185373970928</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.50020998021437</v>
+        <v>-0.599685235844788</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.938427710080118</v>
+        <v>-0.176458902370023</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.31815858231883</v>
+        <v>-0.627902134170284</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.492220013468991</v>
+        <v>-0.490026785429286</v>
       </c>
       <c r="AI2" t="n">
-        <v>-2.22608437409929</v>
+        <v>-0.229853546885546</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.434975972111357</v>
+        <v>0.359695257523331</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.12292094372027</v>
+        <v>-0.220988393334509</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.0536533282853581</v>
+        <v>0.47781183775408</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.352165702602618</v>
+        <v>-0.290931227274021</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.83214784744501</v>
+        <v>-0.176189453420915</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.763653613606436</v>
+        <v>-1.50111735472419</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.788714134157069</v>
+        <v>-0.90801012203152</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0274456901728362</v>
+        <v>1.84977924274213</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.23293895762368</v>
+        <v>-1.1447268364195</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.317808991582341</v>
+        <v>-1.2736905884031</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.86891544007989</v>
+        <v>-1.17195858095125</v>
       </c>
       <c r="AU2" t="n">
-        <v>-2.13339270239654</v>
+        <v>0.175229072762848</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.71992567585225</v>
+        <v>0.057682345651557</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.506074009534298</v>
+        <v>0.366999339204725</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.71933492915831</v>
+        <v>-0.983538640378857</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.227604829941158</v>
+        <v>0.353468531646709</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.19575246545986</v>
+        <v>0.296141662052649</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.15426545430864</v>
+        <v>-0.716336883015483</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.226327893603669</v>
+        <v>0.565422413747279</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.50030799066617</v>
+        <v>-0.995266329168523</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.633910888808712</v>
+        <v>-0.389451486772822</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.267552504201745</v>
+        <v>0.169180429970639</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.951535557945965</v>
+        <v>-0.930969592208683</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0611984513262307</v>
+        <v>0.246168615350176</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.07586413249471</v>
+        <v>-0.285992966698252</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.313406549834769</v>
+        <v>1.24667512337218</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.6080961885104</v>
+        <v>-0.217665024140129</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.231826800618223</v>
+        <v>-0.925772265466715</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.86052585509851</v>
+        <v>-0.878420096968777</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.319911116353283</v>
+        <v>-0.63074352155902</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.192443442627403</v>
+        <v>1.1766364151793</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.535353842048313</v>
+        <v>-1.23069788974669</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.20265252317635</v>
+        <v>-1.0338378705075</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.600280271035133</v>
+        <v>0.138614843157677</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.19471088660524</v>
+        <v>0.304538186003839</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0916485118820541</v>
+        <v>0.28226280097642</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.892935779983859</v>
+        <v>0.817511672529517</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.58918375252743</v>
+        <v>-0.30111457907409</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.672028240724263</v>
+        <v>0.0109511206825596</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.362065256013129</v>
+        <v>0.296464164870437</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.888045909647884</v>
+        <v>-0.567982401996455</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.325934936130947</v>
+        <v>-0.0185519305641144</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.288313371546776</v>
+        <v>-0.382894282021226</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.30485134291316</v>
+        <v>-1.18412012445304</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.260637282061601</v>
+        <v>-0.423999808280882</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.50237978105126</v>
+        <v>0.809833575504236</v>
       </c>
       <c r="CD2" t="n">
-        <v>-1.04905981810896</v>
+        <v>0.503385231902482</v>
       </c>
       <c r="CE2" t="n">
-        <v>-1.48864928796429</v>
+        <v>-0.241906191435448</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.611669759519022</v>
+        <v>0.850862454262712</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.742657489736721</v>
+        <v>-1.21064889248921</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.36129360117434</v>
+        <v>1.80859974084249</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.53676795678844</v>
+        <v>-0.586404750345116</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.722608394352346</v>
+        <v>1.35218875234681</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.327293535719565</v>
+        <v>0.383662881596903</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.760582527927412</v>
+        <v>-0.113200103702459</v>
       </c>
       <c r="CM2" t="n">
-        <v>2.24085393508616</v>
+        <v>-0.212392705144231</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.11179179348572</v>
+        <v>0.553939505013365</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.00604549335179</v>
+        <v>-1.57558011742646</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.894288816336129</v>
+        <v>-1.94788160374442</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.77430691130409</v>
+        <v>1.83313554691248</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.272539444245832</v>
+        <v>-0.0951579632214284</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.2830897792488</v>
+        <v>-1.25166279220768</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.231536995339294</v>
+        <v>-0.896304829722101</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.239676290610203</v>
+        <v>0.514491056060513</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.711607135308139</v>
+        <v>0.884021300826772</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.23643905535347</v>
+        <v>1.51094362717528</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.285430550656212</v>
+        <v>1.02709696246076</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.306110085252909</v>
+        <v>-0.747259069533009</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.16805071703104</v>
+        <v>1.22706821720694</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.5919649970373</v>
+        <v>1.41686831744985</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.111300183100808</v>
+        <v>-0.118301780037234</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.674511935713959</v>
+        <v>0.470894069257192</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.95930712393614</v>
+        <v>-0.663816487346768</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.738473509747686</v>
+        <v>-0.21415757330277</v>
       </c>
       <c r="DF2" t="n">
-        <v>-1.67355285585999</v>
+        <v>-0.459848497638105</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.0724325475416139</v>
+        <v>0.71812235468629</v>
       </c>
       <c r="DH2" t="n">
-        <v>2.46071123720872</v>
+        <v>0.316718063678516</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.524705346182197</v>
+        <v>0.499132890508678</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.6300539661272</v>
+        <v>-1.65204154930527</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.70319551898523</v>
+        <v>0.480316674074578</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.084533651358571</v>
+        <v>0.0982442814598733</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.52943097893524</v>
+        <v>-0.433324288993019</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.69594059598519</v>
+        <v>0.181545300906257</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.473949241921497</v>
+        <v>-0.592444733833604</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.92291012121961</v>
+        <v>-0.881410337717625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.721308643941363</v>
+        <v>1.61874166366237</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.44756224468449</v>
+        <v>-1.39817072994527</v>
       </c>
       <c r="DS2" t="n">
-        <v>-2.15879466001232</v>
+        <v>0.96586933293155</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.44029954883445</v>
+        <v>1.17081280135682</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.0755305440757</v>
+        <v>1.30073062716606</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.9931061005048</v>
+        <v>-0.305434178893301</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.237646425561701</v>
+        <v>-0.17511203072137</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.256068021603959</v>
+        <v>0.807603288825539</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.62511139300522</v>
+        <v>3.15323876987492</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.118734617760792</v>
+        <v>0.312905372847166</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.369758454976788</v>
+        <v>1.85798169219929</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.842439398465467</v>
+        <v>-0.0839648623688473</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.429654483952206</v>
+        <v>1.11270820253822</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.66535299323207</v>
+        <v>1.48369792639572</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.71565583363346</v>
+        <v>2.17241793104405</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.769461429840132</v>
+        <v>0.922098087761367</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.72802734530271</v>
+        <v>1.37446608770954</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00456249990492295</v>
+        <v>-0.163229606528869</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.203815327868683</v>
+        <v>1.97863287084843</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-0.756114512819267</v>
+        <v>1.36621376863956</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.148499177487514</v>
+        <v>-0.388637396479369</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.913368200617582</v>
+        <v>1.53608253275722</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.40558822631148</v>
+        <v>-0.244641401943585</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.151727306329837</v>
+        <v>0.895772697258665</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.568165966440371</v>
+        <v>-1.17681489155258</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.543590712789474</v>
+        <v>0.664002016586074</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.0127163559658742</v>
+        <v>1.21561275200363</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.242435005390299</v>
+        <v>-1.47935960756269</v>
       </c>
       <c r="ES2" t="n">
-        <v>-1.26220372121185</v>
+        <v>-0.57178084325556</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0.254328853133305</v>
+        <v>0.774855220124184</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.432129569702025</v>
+        <v>0.306758002305083</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.249354943404507</v>
+        <v>-1.13801570441883</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.000708481089921403</v>
+        <v>-1.49379349887889</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.867038812166986</v>
+        <v>0.27913552961091</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.399357385294046</v>
+        <v>-0.0150893602992021</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-1.27576140832725</v>
+        <v>1.59446389563517</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.20268008843401</v>
+        <v>0.236070189046563</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.743762226600822</v>
+        <v>1.2704765915653</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.57293038357721</v>
+        <v>0.637028311547179</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0202260387600452</v>
+        <v>-1.09641328160677</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0623739549391701</v>
+        <v>0.744244094438844</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.968348995098664</v>
+        <v>1.12335129279954</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.92327181612025</v>
+        <v>-0.460707047461348</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.116834243066777</v>
+        <v>-0.960288437810529</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.387648534642926</v>
+        <v>2.01917654999847</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.942303592163285</v>
+        <v>0.21029828254867</v>
       </c>
       <c r="FK2" t="n">
         <v>0</v>
@@ -1955,26 +1973,26 @@
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP2" t="n">
         <v>1</v>
       </c>
-      <c r="FO2" t="n">
+      <c r="FQ2" t="n">
         <v>1</v>
       </c>
-      <c r="FP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
-      </c>
       <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
         <v>1</v>
       </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
       <c r="FT2" t="n">
         <v>0</v>
       </c>
@@ -1982,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
         <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>1</v>
@@ -1997,510 +2015,519 @@
         <v>1</v>
       </c>
       <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
         <v>1</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.14337114726813</v>
+        <v>-0.411392979671012</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.09675936579724</v>
+        <v>-0.683782397721073</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.54756326976398</v>
+        <v>0.246767566095448</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.3896016871077</v>
+        <v>0.289783190465829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.178120870842131</v>
+        <v>0.819083546032101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.273738184493168</v>
+        <v>0.682940955405569</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.503436556987895</v>
+        <v>1.46725657434548</v>
       </c>
       <c r="H3" t="n">
-        <v>0.895654299351934</v>
+        <v>-0.463798588928585</v>
       </c>
       <c r="I3" t="n">
-        <v>0.727197014709977</v>
+        <v>0.0944341434076045</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.551782217084822</v>
+        <v>-1.29821053011125</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.412174067194617</v>
+        <v>1.83973677938932</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.724298177832096</v>
+        <v>-1.10520086631194</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.471461277313319</v>
+        <v>-0.967289912119135</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.831591022202987</v>
+        <v>0.971657762130297</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.467026203568514</v>
+        <v>-0.845331642025496</v>
       </c>
       <c r="P3" t="n">
-        <v>0.61011608414919</v>
+        <v>-0.910908740480939</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.14420048703294</v>
+        <v>-0.252078540269054</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.885301981822404</v>
+        <v>1.41189210352178</v>
       </c>
       <c r="S3" t="n">
-        <v>1.47238471519506</v>
+        <v>-0.696465671410467</v>
       </c>
       <c r="T3" t="n">
-        <v>0.29441833472699</v>
+        <v>-0.159101433232435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.126834046285603</v>
+        <v>-0.810592157303737</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.420302457293227</v>
+        <v>0.577005504695685</v>
       </c>
       <c r="W3" t="n">
-        <v>-2.55538442264048</v>
+        <v>0.122276711038231</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.364546858892319</v>
+        <v>0.719186797970971</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.615320443707</v>
+        <v>-0.417160558386132</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.403251442757841</v>
+        <v>-0.422954671214157</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.951754772747775</v>
+        <v>1.30995512325777</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.898775606561945</v>
+        <v>-0.308916814664123</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.981401235281464</v>
+        <v>0.424643507444538</v>
       </c>
       <c r="AD3" t="n">
-        <v>-2.26029075265663</v>
+        <v>-0.276185373970928</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.50020998021437</v>
+        <v>-0.599685235844788</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.938427710080118</v>
+        <v>-0.176458902370023</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.31815858231883</v>
+        <v>-0.627902134170284</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.492220013468991</v>
+        <v>-0.490026785429286</v>
       </c>
       <c r="AI3" t="n">
-        <v>-2.22608437409929</v>
+        <v>-0.229853546885546</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.434975972111357</v>
+        <v>0.359695257523331</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.12292094372027</v>
+        <v>-0.220988393334509</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.0536533282853581</v>
+        <v>0.47781183775408</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.352165702602618</v>
+        <v>-0.290931227274021</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.83214784744501</v>
+        <v>-0.176189453420915</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.763653613606436</v>
+        <v>-1.50111735472419</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.788714134157069</v>
+        <v>-0.90801012203152</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0274456901728362</v>
+        <v>1.84977924274213</v>
       </c>
       <c r="AR3" t="n">
-        <v>1.23293895762368</v>
+        <v>-1.1447268364195</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.317808991582341</v>
+        <v>-1.2736905884031</v>
       </c>
       <c r="AT3" t="n">
-        <v>-1.86891544007989</v>
+        <v>-1.17195858095125</v>
       </c>
       <c r="AU3" t="n">
-        <v>-2.13339270239654</v>
+        <v>0.175229072762848</v>
       </c>
       <c r="AV3" t="n">
-        <v>-1.71992567585225</v>
+        <v>0.057682345651557</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.506074009534298</v>
+        <v>0.366999339204725</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.71933492915831</v>
+        <v>-0.983538640378857</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.227604829941158</v>
+        <v>0.353468531646709</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-1.19575246545986</v>
+        <v>0.296141662052649</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.15426545430864</v>
+        <v>-0.716336883015483</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.226327893603669</v>
+        <v>0.565422413747279</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.50030799066617</v>
+        <v>-0.995266329168523</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.633910888808712</v>
+        <v>-0.389451486772822</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.267552504201745</v>
+        <v>0.169180429970639</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.951535557945965</v>
+        <v>-0.930969592208683</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0611984513262307</v>
+        <v>0.246168615350176</v>
       </c>
       <c r="BH3" t="n">
-        <v>-1.07586413249471</v>
+        <v>-0.285992966698252</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.313406549834769</v>
+        <v>1.24667512337218</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.6080961885104</v>
+        <v>-0.217665024140129</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.231826800618223</v>
+        <v>-0.925772265466715</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.86052585509851</v>
+        <v>-0.878420096968777</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.319911116353283</v>
+        <v>-0.63074352155902</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.192443442627403</v>
+        <v>1.1766364151793</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.535353842048313</v>
+        <v>-1.23069788974669</v>
       </c>
       <c r="BP3" t="n">
-        <v>-1.20265252317635</v>
+        <v>-1.0338378705075</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0.600280271035133</v>
+        <v>0.138614843157677</v>
       </c>
       <c r="BR3" t="n">
-        <v>-1.19471088660524</v>
+        <v>0.304538186003839</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0916485118820541</v>
+        <v>0.28226280097642</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.892935779983859</v>
+        <v>0.817511672529517</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.58918375252743</v>
+        <v>-0.30111457907409</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.672028240724263</v>
+        <v>0.0109511206825596</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.362065256013129</v>
+        <v>0.296464164870437</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.888045909647884</v>
+        <v>-0.567982401996455</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.325934936130947</v>
+        <v>-0.0185519305641144</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.288313371546776</v>
+        <v>-0.382894282021226</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.30485134291316</v>
+        <v>-1.18412012445304</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.260637282061601</v>
+        <v>-0.423999808280882</v>
       </c>
       <c r="CC3" t="n">
-        <v>-0.50237978105126</v>
+        <v>0.809833575504236</v>
       </c>
       <c r="CD3" t="n">
-        <v>-1.04905981810896</v>
+        <v>0.503385231902482</v>
       </c>
       <c r="CE3" t="n">
-        <v>-1.48864928796429</v>
+        <v>-0.241906191435448</v>
       </c>
       <c r="CF3" t="n">
-        <v>-0.611669759519022</v>
+        <v>0.850862454262712</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.742657489736721</v>
+        <v>-1.21064889248921</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.36129360117434</v>
+        <v>1.80859974084249</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.53676795678844</v>
+        <v>-0.586404750345116</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0.722608394352346</v>
+        <v>1.35218875234681</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0.327293535719565</v>
+        <v>0.383662881596903</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.760582527927412</v>
+        <v>-0.113200103702459</v>
       </c>
       <c r="CM3" t="n">
-        <v>2.24085393508616</v>
+        <v>-0.212392705144231</v>
       </c>
       <c r="CN3" t="n">
-        <v>-1.11179179348572</v>
+        <v>0.553939505013365</v>
       </c>
       <c r="CO3" t="n">
-        <v>1.00604549335179</v>
+        <v>-1.57558011742646</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.894288816336129</v>
+        <v>-1.94788160374442</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-1.77430691130409</v>
+        <v>1.83313554691248</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.272539444245832</v>
+        <v>-0.0951579632214284</v>
       </c>
       <c r="CS3" t="n">
-        <v>-0.2830897792488</v>
+        <v>-1.25166279220768</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.231536995339294</v>
+        <v>-0.896304829722101</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.239676290610203</v>
+        <v>0.514491056060513</v>
       </c>
       <c r="CV3" t="n">
-        <v>-0.711607135308139</v>
+        <v>0.884021300826772</v>
       </c>
       <c r="CW3" t="n">
-        <v>-1.23643905535347</v>
+        <v>1.51094362717528</v>
       </c>
       <c r="CX3" t="n">
-        <v>-0.285430550656212</v>
+        <v>1.02709696246076</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.306110085252909</v>
+        <v>-0.747259069533009</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.16805071703104</v>
+        <v>1.22706821720694</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.5919649970373</v>
+        <v>1.41686831744985</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.111300183100808</v>
+        <v>-0.118301780037234</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.674511935713959</v>
+        <v>0.470894069257192</v>
       </c>
       <c r="DD3" t="n">
-        <v>1.95930712393614</v>
+        <v>-0.663816487346768</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.738473509747686</v>
+        <v>-0.21415757330277</v>
       </c>
       <c r="DF3" t="n">
-        <v>-1.67355285585999</v>
+        <v>-0.459848497638105</v>
       </c>
       <c r="DG3" t="n">
-        <v>-0.0724325475416139</v>
+        <v>0.71812235468629</v>
       </c>
       <c r="DH3" t="n">
-        <v>2.46071123720872</v>
+        <v>0.316718063678516</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.524705346182197</v>
+        <v>0.499132890508678</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.6300539661272</v>
+        <v>-1.65204154930527</v>
       </c>
       <c r="DK3" t="n">
-        <v>-1.70319551898523</v>
+        <v>0.480316674074578</v>
       </c>
       <c r="DL3" t="n">
-        <v>-0.084533651358571</v>
+        <v>0.0982442814598733</v>
       </c>
       <c r="DM3" t="n">
-        <v>-1.52943097893524</v>
+        <v>-0.433324288993019</v>
       </c>
       <c r="DN3" t="n">
-        <v>-1.69594059598519</v>
+        <v>0.181545300906257</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.473949241921497</v>
+        <v>-0.592444733833604</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.92291012121961</v>
+        <v>-0.881410337717625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0.721308643941363</v>
+        <v>1.61874166366237</v>
       </c>
       <c r="DR3" t="n">
-        <v>-1.44756224468449</v>
+        <v>-1.39817072994527</v>
       </c>
       <c r="DS3" t="n">
-        <v>-2.15879466001232</v>
+        <v>0.96586933293155</v>
       </c>
       <c r="DT3" t="n">
-        <v>-1.44029954883445</v>
+        <v>1.17081280135682</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.0755305440757</v>
+        <v>1.30073062716606</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.9931061005048</v>
+        <v>-0.305434178893301</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.237646425561701</v>
+        <v>-0.17511203072137</v>
       </c>
       <c r="DX3" t="n">
-        <v>-0.256068021603959</v>
+        <v>0.807603288825539</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.62511139300522</v>
+        <v>3.15323876987492</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.118734617760792</v>
+        <v>0.312905372847166</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.369758454976788</v>
+        <v>1.85798169219929</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0.842439398465467</v>
+        <v>-0.0839648623688473</v>
       </c>
       <c r="EC3" t="n">
-        <v>-0.429654483952206</v>
+        <v>1.11270820253822</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.66535299323207</v>
+        <v>1.48369792639572</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.71565583363346</v>
+        <v>2.17241793104405</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0.769461429840132</v>
+        <v>0.922098087761367</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.72802734530271</v>
+        <v>1.37446608770954</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.00456249990492295</v>
+        <v>-0.163229606528869</v>
       </c>
       <c r="EI3" t="n">
-        <v>-0.203815327868683</v>
+        <v>1.97863287084843</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.756114512819267</v>
+        <v>1.36621376863956</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.148499177487514</v>
+        <v>-0.388637396479369</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0.913368200617582</v>
+        <v>1.53608253275722</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.40558822631148</v>
+        <v>-0.244641401943585</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.151727306329837</v>
+        <v>0.895772697258665</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0.568165966440371</v>
+        <v>-1.17681489155258</v>
       </c>
       <c r="EP3" t="n">
-        <v>-0.543590712789474</v>
+        <v>0.664002016586074</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.0127163559658742</v>
+        <v>1.21561275200363</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.242435005390299</v>
+        <v>-1.47935960756269</v>
       </c>
       <c r="ES3" t="n">
-        <v>-1.26220372121185</v>
+        <v>-0.57178084325556</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0.254328853133305</v>
+        <v>0.774855220124184</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0.432129569702025</v>
+        <v>0.306758002305083</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.249354943404507</v>
+        <v>-1.13801570441883</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.000708481089921403</v>
+        <v>-1.49379349887889</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.867038812166986</v>
+        <v>0.27913552961091</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.399357385294046</v>
+        <v>-0.0150893602992021</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-1.27576140832725</v>
+        <v>1.59446389563517</v>
       </c>
       <c r="FA3" t="n">
-        <v>-1.20268008843401</v>
+        <v>0.236070189046563</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.743762226600822</v>
+        <v>1.2704765915653</v>
       </c>
       <c r="FC3" t="n">
-        <v>1.57293038357721</v>
+        <v>0.637028311547179</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0202260387600452</v>
+        <v>-1.09641328160677</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0.0623739549391701</v>
+        <v>0.744244094438844</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.968348995098664</v>
+        <v>1.12335129279954</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.92327181612025</v>
+        <v>-0.460707047461348</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.116834243066777</v>
+        <v>-0.960288437810529</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.387648534642926</v>
+        <v>2.01917654999847</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.942303592163285</v>
+        <v>0.21029828254867</v>
       </c>
       <c r="FK3" t="n">
         <v>0</v>
@@ -2509,26 +2536,26 @@
         <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
         <v>1</v>
       </c>
-      <c r="FO3" t="n">
+      <c r="FQ3" t="n">
         <v>1</v>
       </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0</v>
-      </c>
       <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
         <v>1</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
       <c r="FT3" t="n">
         <v>0</v>
       </c>
@@ -2536,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="FV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
         <v>1</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>1</v>
@@ -2551,510 +2578,519 @@
         <v>1</v>
       </c>
       <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
         <v>1</v>
       </c>
-      <c r="GB3" t="n">
+      <c r="GC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.14337114726813</v>
+        <v>-0.411392979671012</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.09675936579724</v>
+        <v>-0.683782397721073</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.54756326976398</v>
+        <v>0.246767566095448</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.3896016871077</v>
+        <v>0.289783190465829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.178120870842131</v>
+        <v>0.819083546032101</v>
       </c>
       <c r="F4" t="n">
-        <v>0.273738184493168</v>
+        <v>0.682940955405569</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.503436556987895</v>
+        <v>1.46725657434548</v>
       </c>
       <c r="H4" t="n">
-        <v>0.895654299351934</v>
+        <v>-0.463798588928585</v>
       </c>
       <c r="I4" t="n">
-        <v>0.727197014709977</v>
+        <v>0.0944341434076045</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.551782217084822</v>
+        <v>-1.29821053011125</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.412174067194617</v>
+        <v>1.83973677938932</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.724298177832096</v>
+        <v>-1.10520086631194</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.471461277313319</v>
+        <v>-0.967289912119135</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.831591022202987</v>
+        <v>0.971657762130297</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.467026203568514</v>
+        <v>-0.845331642025496</v>
       </c>
       <c r="P4" t="n">
-        <v>0.61011608414919</v>
+        <v>-0.910908740480939</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.14420048703294</v>
+        <v>-0.252078540269054</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.885301981822404</v>
+        <v>1.41189210352178</v>
       </c>
       <c r="S4" t="n">
-        <v>1.47238471519506</v>
+        <v>-0.696465671410467</v>
       </c>
       <c r="T4" t="n">
-        <v>0.29441833472699</v>
+        <v>-0.159101433232435</v>
       </c>
       <c r="U4" t="n">
-        <v>0.126834046285603</v>
+        <v>-0.810592157303737</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.420302457293227</v>
+        <v>0.577005504695685</v>
       </c>
       <c r="W4" t="n">
-        <v>-2.55538442264048</v>
+        <v>0.122276711038231</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.364546858892319</v>
+        <v>0.719186797970971</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.615320443707</v>
+        <v>-0.417160558386132</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.403251442757841</v>
+        <v>-0.422954671214157</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.951754772747775</v>
+        <v>1.30995512325777</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.898775606561945</v>
+        <v>-0.308916814664123</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.981401235281464</v>
+        <v>0.424643507444538</v>
       </c>
       <c r="AD4" t="n">
-        <v>-2.26029075265663</v>
+        <v>-0.276185373970928</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.50020998021437</v>
+        <v>-0.599685235844788</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.938427710080118</v>
+        <v>-0.176458902370023</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.31815858231883</v>
+        <v>-0.627902134170284</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.492220013468991</v>
+        <v>-0.490026785429286</v>
       </c>
       <c r="AI4" t="n">
-        <v>-2.22608437409929</v>
+        <v>-0.229853546885546</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.434975972111357</v>
+        <v>0.359695257523331</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.12292094372027</v>
+        <v>-0.220988393334509</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.0536533282853581</v>
+        <v>0.47781183775408</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.352165702602618</v>
+        <v>-0.290931227274021</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.83214784744501</v>
+        <v>-0.176189453420915</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.763653613606436</v>
+        <v>-1.50111735472419</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.788714134157069</v>
+        <v>-0.90801012203152</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0274456901728362</v>
+        <v>1.84977924274213</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.23293895762368</v>
+        <v>-1.1447268364195</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.317808991582341</v>
+        <v>-1.2736905884031</v>
       </c>
       <c r="AT4" t="n">
-        <v>-1.86891544007989</v>
+        <v>-1.17195858095125</v>
       </c>
       <c r="AU4" t="n">
-        <v>-2.13339270239654</v>
+        <v>0.175229072762848</v>
       </c>
       <c r="AV4" t="n">
-        <v>-1.71992567585225</v>
+        <v>0.057682345651557</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.506074009534298</v>
+        <v>0.366999339204725</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.71933492915831</v>
+        <v>-0.983538640378857</v>
       </c>
       <c r="AY4" t="n">
-        <v>-0.227604829941158</v>
+        <v>0.353468531646709</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-1.19575246545986</v>
+        <v>0.296141662052649</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.15426545430864</v>
+        <v>-0.716336883015483</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.226327893603669</v>
+        <v>0.565422413747279</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.50030799066617</v>
+        <v>-0.995266329168523</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.633910888808712</v>
+        <v>-0.389451486772822</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.267552504201745</v>
+        <v>0.169180429970639</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.951535557945965</v>
+        <v>-0.930969592208683</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.0611984513262307</v>
+        <v>0.246168615350176</v>
       </c>
       <c r="BH4" t="n">
-        <v>-1.07586413249471</v>
+        <v>-0.285992966698252</v>
       </c>
       <c r="BI4" t="n">
-        <v>-0.313406549834769</v>
+        <v>1.24667512337218</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.6080961885104</v>
+        <v>-0.217665024140129</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.231826800618223</v>
+        <v>-0.925772265466715</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.86052585509851</v>
+        <v>-0.878420096968777</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.319911116353283</v>
+        <v>-0.63074352155902</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.192443442627403</v>
+        <v>1.1766364151793</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.535353842048313</v>
+        <v>-1.23069788974669</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1.20265252317635</v>
+        <v>-1.0338378705075</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-0.600280271035133</v>
+        <v>0.138614843157677</v>
       </c>
       <c r="BR4" t="n">
-        <v>-1.19471088660524</v>
+        <v>0.304538186003839</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.0916485118820541</v>
+        <v>0.28226280097642</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.892935779983859</v>
+        <v>0.817511672529517</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.58918375252743</v>
+        <v>-0.30111457907409</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.672028240724263</v>
+        <v>0.0109511206825596</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.362065256013129</v>
+        <v>0.296464164870437</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.888045909647884</v>
+        <v>-0.567982401996455</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.325934936130947</v>
+        <v>-0.0185519305641144</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.288313371546776</v>
+        <v>-0.382894282021226</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.30485134291316</v>
+        <v>-1.18412012445304</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.260637282061601</v>
+        <v>-0.423999808280882</v>
       </c>
       <c r="CC4" t="n">
-        <v>-0.50237978105126</v>
+        <v>0.809833575504236</v>
       </c>
       <c r="CD4" t="n">
-        <v>-1.04905981810896</v>
+        <v>0.503385231902482</v>
       </c>
       <c r="CE4" t="n">
-        <v>-1.48864928796429</v>
+        <v>-0.241906191435448</v>
       </c>
       <c r="CF4" t="n">
-        <v>-0.611669759519022</v>
+        <v>0.850862454262712</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.742657489736721</v>
+        <v>-1.21064889248921</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.36129360117434</v>
+        <v>1.80859974084249</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.53676795678844</v>
+        <v>-0.586404750345116</v>
       </c>
       <c r="CJ4" t="n">
-        <v>-0.722608394352346</v>
+        <v>1.35218875234681</v>
       </c>
       <c r="CK4" t="n">
-        <v>-0.327293535719565</v>
+        <v>0.383662881596903</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.760582527927412</v>
+        <v>-0.113200103702459</v>
       </c>
       <c r="CM4" t="n">
-        <v>2.24085393508616</v>
+        <v>-0.212392705144231</v>
       </c>
       <c r="CN4" t="n">
-        <v>-1.11179179348572</v>
+        <v>0.553939505013365</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.00604549335179</v>
+        <v>-1.57558011742646</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.894288816336129</v>
+        <v>-1.94788160374442</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-1.77430691130409</v>
+        <v>1.83313554691248</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.272539444245832</v>
+        <v>-0.0951579632214284</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.2830897792488</v>
+        <v>-1.25166279220768</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.231536995339294</v>
+        <v>-0.896304829722101</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.239676290610203</v>
+        <v>0.514491056060513</v>
       </c>
       <c r="CV4" t="n">
-        <v>-0.711607135308139</v>
+        <v>0.884021300826772</v>
       </c>
       <c r="CW4" t="n">
-        <v>-1.23643905535347</v>
+        <v>1.51094362717528</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.285430550656212</v>
+        <v>1.02709696246076</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.306110085252909</v>
+        <v>-0.747259069533009</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.16805071703104</v>
+        <v>1.22706821720694</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.5919649970373</v>
+        <v>1.41686831744985</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.111300183100808</v>
+        <v>-0.118301780037234</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.674511935713959</v>
+        <v>0.470894069257192</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.95930712393614</v>
+        <v>-0.663816487346768</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.738473509747686</v>
+        <v>-0.21415757330277</v>
       </c>
       <c r="DF4" t="n">
-        <v>-1.67355285585999</v>
+        <v>-0.459848497638105</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.0724325475416139</v>
+        <v>0.71812235468629</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.46071123720872</v>
+        <v>0.316718063678516</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.524705346182197</v>
+        <v>0.499132890508678</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.6300539661272</v>
+        <v>-1.65204154930527</v>
       </c>
       <c r="DK4" t="n">
-        <v>-1.70319551898523</v>
+        <v>0.480316674074578</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.084533651358571</v>
+        <v>0.0982442814598733</v>
       </c>
       <c r="DM4" t="n">
-        <v>-1.52943097893524</v>
+        <v>-0.433324288993019</v>
       </c>
       <c r="DN4" t="n">
-        <v>-1.69594059598519</v>
+        <v>0.181545300906257</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.473949241921497</v>
+        <v>-0.592444733833604</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.92291012121961</v>
+        <v>-0.881410337717625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0.721308643941363</v>
+        <v>1.61874166366237</v>
       </c>
       <c r="DR4" t="n">
-        <v>-1.44756224468449</v>
+        <v>-1.39817072994527</v>
       </c>
       <c r="DS4" t="n">
-        <v>-2.15879466001232</v>
+        <v>0.96586933293155</v>
       </c>
       <c r="DT4" t="n">
-        <v>-1.44029954883445</v>
+        <v>1.17081280135682</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.0755305440757</v>
+        <v>1.30073062716606</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.9931061005048</v>
+        <v>-0.305434178893301</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.237646425561701</v>
+        <v>-0.17511203072137</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.256068021603959</v>
+        <v>0.807603288825539</v>
       </c>
       <c r="DY4" t="n">
-        <v>-0.62511139300522</v>
+        <v>3.15323876987492</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.118734617760792</v>
+        <v>0.312905372847166</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.369758454976788</v>
+        <v>1.85798169219929</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.842439398465467</v>
+        <v>-0.0839648623688473</v>
       </c>
       <c r="EC4" t="n">
-        <v>-0.429654483952206</v>
+        <v>1.11270820253822</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.66535299323207</v>
+        <v>1.48369792639572</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.71565583363346</v>
+        <v>2.17241793104405</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0.769461429840132</v>
+        <v>0.922098087761367</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.72802734530271</v>
+        <v>1.37446608770954</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.00456249990492295</v>
+        <v>-0.163229606528869</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0.203815327868683</v>
+        <v>1.97863287084843</v>
       </c>
       <c r="EJ4" t="n">
-        <v>-0.756114512819267</v>
+        <v>1.36621376863956</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.148499177487514</v>
+        <v>-0.388637396479369</v>
       </c>
       <c r="EL4" t="n">
-        <v>-0.913368200617582</v>
+        <v>1.53608253275722</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.40558822631148</v>
+        <v>-0.244641401943585</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.151727306329837</v>
+        <v>0.895772697258665</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0.568165966440371</v>
+        <v>-1.17681489155258</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0.543590712789474</v>
+        <v>0.664002016586074</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.0127163559658742</v>
+        <v>1.21561275200363</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.242435005390299</v>
+        <v>-1.47935960756269</v>
       </c>
       <c r="ES4" t="n">
-        <v>-1.26220372121185</v>
+        <v>-0.57178084325556</v>
       </c>
       <c r="ET4" t="n">
-        <v>-0.254328853133305</v>
+        <v>0.774855220124184</v>
       </c>
       <c r="EU4" t="n">
-        <v>-0.432129569702025</v>
+        <v>0.306758002305083</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.249354943404507</v>
+        <v>-1.13801570441883</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.000708481089921403</v>
+        <v>-1.49379349887889</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.867038812166986</v>
+        <v>0.27913552961091</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.399357385294046</v>
+        <v>-0.0150893602992021</v>
       </c>
       <c r="EZ4" t="n">
-        <v>-1.27576140832725</v>
+        <v>1.59446389563517</v>
       </c>
       <c r="FA4" t="n">
-        <v>-1.20268008843401</v>
+        <v>0.236070189046563</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.743762226600822</v>
+        <v>1.2704765915653</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.57293038357721</v>
+        <v>0.637028311547179</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.0202260387600452</v>
+        <v>-1.09641328160677</v>
       </c>
       <c r="FE4" t="n">
-        <v>-0.0623739549391701</v>
+        <v>0.744244094438844</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.968348995098664</v>
+        <v>1.12335129279954</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.92327181612025</v>
+        <v>-0.460707047461348</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.116834243066777</v>
+        <v>-0.960288437810529</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.387648534642926</v>
+        <v>2.01917654999847</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.942303592163285</v>
+        <v>0.21029828254867</v>
       </c>
       <c r="FK4" t="n">
         <v>0</v>
@@ -3063,26 +3099,26 @@
         <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP4" t="n">
         <v>1</v>
       </c>
-      <c r="FO4" t="n">
+      <c r="FQ4" t="n">
         <v>1</v>
       </c>
-      <c r="FP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ4" t="n">
-        <v>0</v>
-      </c>
       <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
         <v>1</v>
       </c>
-      <c r="FS4" t="n">
-        <v>0</v>
-      </c>
       <c r="FT4" t="n">
         <v>0</v>
       </c>
@@ -3090,13 +3126,13 @@
         <v>0</v>
       </c>
       <c r="FV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX4" t="n">
         <v>1</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX4" t="n">
-        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>1</v>
@@ -3105,9 +3141,18 @@
         <v>1</v>
       </c>
       <c r="GA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="n">
         <v>1</v>
       </c>
-      <c r="GB4" t="n">
+      <c r="GC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GE4" t="n">
         <v>1</v>
       </c>
     </row>

--- a/file_checks/dataset_X_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/dataset_X_correct_genes_wrong_pheno.xlsx
@@ -1469,502 +1469,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.411392979671012</v>
+        <v>1.13666680179186</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.683782397721073</v>
+        <v>-2.35119705466424</v>
       </c>
       <c r="C2" t="n">
-        <v>0.246767566095448</v>
+        <v>-0.887010690401842</v>
       </c>
       <c r="D2" t="n">
-        <v>0.289783190465829</v>
+        <v>0.449019299635341</v>
       </c>
       <c r="E2" t="n">
-        <v>0.819083546032101</v>
+        <v>-0.0832933124845777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.682940955405569</v>
+        <v>-0.427360787692115</v>
       </c>
       <c r="G2" t="n">
-        <v>1.46725657434548</v>
+        <v>-0.280465267576499</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.463798588928585</v>
+        <v>0.151310186496133</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0944341434076045</v>
+        <v>0.753866934030619</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.29821053011125</v>
+        <v>-2.27430442248833</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83973677938932</v>
+        <v>-0.439288484158712</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.10520086631194</v>
+        <v>0.198384577178043</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.967289912119135</v>
+        <v>0.292177330863661</v>
       </c>
       <c r="N2" t="n">
-        <v>0.971657762130297</v>
+        <v>0.511850065593618</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.845331642025496</v>
+        <v>0.150511535670752</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.910908740480939</v>
+        <v>0.074119048106811</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.252078540269054</v>
+        <v>-0.797400773940614</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41189210352178</v>
+        <v>1.12023171352225</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.696465671410467</v>
+        <v>0.953621028726685</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.159101433232435</v>
+        <v>-0.382921483356675</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.810592157303737</v>
+        <v>-1.22488035493321</v>
       </c>
       <c r="V2" t="n">
-        <v>0.577005504695685</v>
+        <v>-0.363234311981111</v>
       </c>
       <c r="W2" t="n">
-        <v>0.122276711038231</v>
+        <v>1.32480859263773</v>
       </c>
       <c r="X2" t="n">
-        <v>0.719186797970971</v>
+        <v>1.66358275943752</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.417160558386132</v>
+        <v>-1.0031150709828</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.422954671214157</v>
+        <v>0.649329419213342</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.30995512325777</v>
+        <v>1.95895013992619</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.308916814664123</v>
+        <v>-0.362092974664288</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.424643507444538</v>
+        <v>-1.50161105819548</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.276185373970928</v>
+        <v>-0.436599876809796</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.599685235844788</v>
+        <v>1.19619377543855</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.176458902370023</v>
+        <v>-0.0283790256323744</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.627902134170284</v>
+        <v>-0.197787429805188</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.490026785429286</v>
+        <v>0.468002577652675</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.229853546885546</v>
+        <v>-1.49731549289403</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.359695257523331</v>
+        <v>-0.312977209673034</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.220988393334509</v>
+        <v>-0.521921093356958</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.47781183775408</v>
+        <v>-1.27601357842555</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.290931227274021</v>
+        <v>1.5018188458285</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.176189453420915</v>
+        <v>0.84381493473559</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.50111735472419</v>
+        <v>-1.60046223031703</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.90801012203152</v>
+        <v>-0.991235485506036</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.84977924274213</v>
+        <v>-0.80711394634561</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.1447268364195</v>
+        <v>0.896652276067135</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.2736905884031</v>
+        <v>-0.635559390719523</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.17195858095125</v>
+        <v>0.318101638222688</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.175229072762848</v>
+        <v>-0.224803291058385</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.057682345651557</v>
+        <v>1.44261021397426</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.366999339204725</v>
+        <v>0.0158645693935628</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.983538640378857</v>
+        <v>0.423222500310044</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.353468531646709</v>
+        <v>1.40829903446773</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.296141662052649</v>
+        <v>-1.45426611121227</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.716336883015483</v>
+        <v>0.456939128432771</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.565422413747279</v>
+        <v>-0.196748425840072</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.995266329168523</v>
+        <v>0.779507372231008</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.389451486772822</v>
+        <v>-0.658421106297215</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.169180429970639</v>
+        <v>-1.47581246659709</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.930969592208683</v>
+        <v>-0.499463130483582</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.246168615350176</v>
+        <v>0.914018109484001</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.285992966698252</v>
+        <v>-2.26134090634271</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.24667512337218</v>
+        <v>-0.93769173545015</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.217665024140129</v>
+        <v>-1.86338550722894</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.925772265466715</v>
+        <v>0.159570980062183</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.878420096968777</v>
+        <v>0.249813861461161</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.63074352155902</v>
+        <v>-1.15083749200847</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.1766364151793</v>
+        <v>0.964345318309347</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.23069788974669</v>
+        <v>-0.106287518977335</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.0338378705075</v>
+        <v>1.72647562347177</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.138614843157677</v>
+        <v>-0.718609335176922</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.304538186003839</v>
+        <v>0.525888478518691</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.28226280097642</v>
+        <v>-1.92202683772105</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.817511672529517</v>
+        <v>0.742479611464312</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.30111457907409</v>
+        <v>-0.166285583679502</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0109511206825596</v>
+        <v>0.0738098345608132</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.296464164870437</v>
+        <v>-1.3455579663909</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.567982401996455</v>
+        <v>1.61713361140018</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.0185519305641144</v>
+        <v>1.40303610483421</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.382894282021226</v>
+        <v>1.22170381634579</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1.18412012445304</v>
+        <v>-1.13051881707346</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.423999808280882</v>
+        <v>0.548069153038007</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.809833575504236</v>
+        <v>-0.398375146669138</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.503385231902482</v>
+        <v>0.809742447754296</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.241906191435448</v>
+        <v>0.6254958484887</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.850862454262712</v>
+        <v>1.03029005359646</v>
       </c>
       <c r="CG2" t="n">
-        <v>-1.21064889248921</v>
+        <v>-0.755006469197137</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.80859974084249</v>
+        <v>-1.11675123866158</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.586404750345116</v>
+        <v>0.836374153707767</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.35218875234681</v>
+        <v>-0.0650551124549843</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.383662881596903</v>
+        <v>-1.23758522852793</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.113200103702459</v>
+        <v>0.124714631036099</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.212392705144231</v>
+        <v>-1.02549531652876</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.553939505013365</v>
+        <v>0.355883924063014</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.57558011742646</v>
+        <v>-0.501049168898176</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.94788160374442</v>
+        <v>-0.738968047734293</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.83313554691248</v>
+        <v>-1.56250434122977</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.0951579632214284</v>
+        <v>0.441167458430615</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.25166279220768</v>
+        <v>0.755623923746862</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.896304829722101</v>
+        <v>3.06745797913983</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.514491056060513</v>
+        <v>0.522293548101198</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.884021300826772</v>
+        <v>0.25974084236291</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.51094362717528</v>
+        <v>-0.732581049568664</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.02709696246076</v>
+        <v>-0.301952570650788</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.747259069533009</v>
+        <v>-1.17140344386971</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.22706821720694</v>
+        <v>-0.834719014350534</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.41686831744985</v>
+        <v>0.727832964950821</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.118301780037234</v>
+        <v>-1.25433606682528</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.470894069257192</v>
+        <v>-0.906750048193198</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.663816487346768</v>
+        <v>0.554542333239835</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.21415757330277</v>
+        <v>0.78619333692258</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.459848497638105</v>
+        <v>0.47213566010998</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.71812235468629</v>
+        <v>-1.37316260243688</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.316718063678516</v>
+        <v>0.126292517366914</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.499132890508678</v>
+        <v>0.417610538581053</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-1.65204154930527</v>
+        <v>0.0300703338252961</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.480316674074578</v>
+        <v>0.106230372111521</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0982442814598733</v>
+        <v>0.686703969070516</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.433324288993019</v>
+        <v>1.59204053698958</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.181545300906257</v>
+        <v>0.575701862158515</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.592444733833604</v>
+        <v>-0.691269069795392</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.881410337717625</v>
+        <v>0.556847450408068</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.61874166366237</v>
+        <v>-0.509324415491941</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.39817072994527</v>
+        <v>1.11004023726211</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.96586933293155</v>
+        <v>1.11872555146955</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.17081280135682</v>
+        <v>-0.0518775465232761</v>
       </c>
       <c r="DU2" t="n">
-        <v>1.30073062716606</v>
+        <v>1.24838664410179</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.305434178893301</v>
+        <v>-1.77707769459237</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.17511203072137</v>
+        <v>2.02461167562313</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.807603288825539</v>
+        <v>0.490930375043142</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.15323876987492</v>
+        <v>-1.37431440019779</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.312905372847166</v>
+        <v>1.43386426813815</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.85798169219929</v>
+        <v>1.02259640942289</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.0839648623688473</v>
+        <v>-1.48572936022382</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.11270820253822</v>
+        <v>-0.66116302497981</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.48369792639572</v>
+        <v>0.46122875264959</v>
       </c>
       <c r="EE2" t="n">
-        <v>2.17241793104405</v>
+        <v>-1.07773680356018</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.922098087761367</v>
+        <v>-0.602518781842508</v>
       </c>
       <c r="EG2" t="n">
-        <v>1.37446608770954</v>
+        <v>-0.419784154443682</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.163229606528869</v>
+        <v>0.290421764476014</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.97863287084843</v>
+        <v>-0.503216520768691</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.36621376863956</v>
+        <v>-1.0702498295299</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.388637396479369</v>
+        <v>0.900867140328612</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.53608253275722</v>
+        <v>-1.09801484985683</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.244641401943585</v>
+        <v>-0.860573573101714</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.895772697258665</v>
+        <v>-0.427288175784229</v>
       </c>
       <c r="EO2" t="n">
-        <v>-1.17681489155258</v>
+        <v>-1.66964290011612</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.664002016586074</v>
+        <v>-1.46578838351117</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.21561275200363</v>
+        <v>-0.623140396911792</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.47935960756269</v>
+        <v>1.27750146887642</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.57178084325556</v>
+        <v>-0.623196292509955</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.774855220124184</v>
+        <v>0.351470278302243</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.306758002305083</v>
+        <v>1.10003117195394</v>
       </c>
       <c r="EV2" t="n">
-        <v>-1.13801570441883</v>
+        <v>-1.33183961166121</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.49379349887889</v>
+        <v>-0.740645974995063</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.27913552961091</v>
+        <v>-0.141457480709139</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.0150893602992021</v>
+        <v>-1.258910473348</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.59446389563517</v>
+        <v>-0.102763919737861</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.236070189046563</v>
+        <v>-0.0572043456701757</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.2704765915653</v>
+        <v>0.71332320535057</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.637028311547179</v>
+        <v>0.144277127360063</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.09641328160677</v>
+        <v>-0.568798480918697</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.744244094438844</v>
+        <v>0.191361538614509</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.12335129279954</v>
+        <v>-0.877207050738314</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.460707047461348</v>
+        <v>0.506302184841861</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.960288437810529</v>
+        <v>0.466980170932401</v>
       </c>
       <c r="FI2" t="n">
-        <v>2.01917654999847</v>
+        <v>1.38277738495679</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.21029828254867</v>
+        <v>-0.804668681895958</v>
       </c>
       <c r="FK2" t="n">
         <v>0</v>
@@ -1979,49 +1979,49 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
         <v>1</v>
       </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
       <c r="FX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
         <v>1</v>
       </c>
       <c r="FZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA2" t="n">
         <v>1</v>
       </c>
-      <c r="GA2" t="n">
-        <v>0</v>
-      </c>
       <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
         <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0</v>
       </c>
       <c r="GD2" t="n">
         <v>0</v>
@@ -2032,502 +2032,502 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.411392979671012</v>
+        <v>1.13666680179186</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.683782397721073</v>
+        <v>-2.35119705466424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.246767566095448</v>
+        <v>-0.887010690401842</v>
       </c>
       <c r="D3" t="n">
-        <v>0.289783190465829</v>
+        <v>0.449019299635341</v>
       </c>
       <c r="E3" t="n">
-        <v>0.819083546032101</v>
+        <v>-0.0832933124845777</v>
       </c>
       <c r="F3" t="n">
-        <v>0.682940955405569</v>
+        <v>-0.427360787692115</v>
       </c>
       <c r="G3" t="n">
-        <v>1.46725657434548</v>
+        <v>-0.280465267576499</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.463798588928585</v>
+        <v>0.151310186496133</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0944341434076045</v>
+        <v>0.753866934030619</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.29821053011125</v>
+        <v>-2.27430442248833</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83973677938932</v>
+        <v>-0.439288484158712</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.10520086631194</v>
+        <v>0.198384577178043</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.967289912119135</v>
+        <v>0.292177330863661</v>
       </c>
       <c r="N3" t="n">
-        <v>0.971657762130297</v>
+        <v>0.511850065593618</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.845331642025496</v>
+        <v>0.150511535670752</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.910908740480939</v>
+        <v>0.074119048106811</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.252078540269054</v>
+        <v>-0.797400773940614</v>
       </c>
       <c r="R3" t="n">
-        <v>1.41189210352178</v>
+        <v>1.12023171352225</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.696465671410467</v>
+        <v>0.953621028726685</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.159101433232435</v>
+        <v>-0.382921483356675</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.810592157303737</v>
+        <v>-1.22488035493321</v>
       </c>
       <c r="V3" t="n">
-        <v>0.577005504695685</v>
+        <v>-0.363234311981111</v>
       </c>
       <c r="W3" t="n">
-        <v>0.122276711038231</v>
+        <v>1.32480859263773</v>
       </c>
       <c r="X3" t="n">
-        <v>0.719186797970971</v>
+        <v>1.66358275943752</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.417160558386132</v>
+        <v>-1.0031150709828</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.422954671214157</v>
+        <v>0.649329419213342</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.30995512325777</v>
+        <v>1.95895013992619</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.308916814664123</v>
+        <v>-0.362092974664288</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.424643507444538</v>
+        <v>-1.50161105819548</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.276185373970928</v>
+        <v>-0.436599876809796</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.599685235844788</v>
+        <v>1.19619377543855</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.176458902370023</v>
+        <v>-0.0283790256323744</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.627902134170284</v>
+        <v>-0.197787429805188</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.490026785429286</v>
+        <v>0.468002577652675</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.229853546885546</v>
+        <v>-1.49731549289403</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.359695257523331</v>
+        <v>-0.312977209673034</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.220988393334509</v>
+        <v>-0.521921093356958</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.47781183775408</v>
+        <v>-1.27601357842555</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.290931227274021</v>
+        <v>1.5018188458285</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.176189453420915</v>
+        <v>0.84381493473559</v>
       </c>
       <c r="AO3" t="n">
-        <v>-1.50111735472419</v>
+        <v>-1.60046223031703</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.90801012203152</v>
+        <v>-0.991235485506036</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.84977924274213</v>
+        <v>-0.80711394634561</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.1447268364195</v>
+        <v>0.896652276067135</v>
       </c>
       <c r="AS3" t="n">
-        <v>-1.2736905884031</v>
+        <v>-0.635559390719523</v>
       </c>
       <c r="AT3" t="n">
-        <v>-1.17195858095125</v>
+        <v>0.318101638222688</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.175229072762848</v>
+        <v>-0.224803291058385</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.057682345651557</v>
+        <v>1.44261021397426</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.366999339204725</v>
+        <v>0.0158645693935628</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.983538640378857</v>
+        <v>0.423222500310044</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.353468531646709</v>
+        <v>1.40829903446773</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.296141662052649</v>
+        <v>-1.45426611121227</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.716336883015483</v>
+        <v>0.456939128432771</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.565422413747279</v>
+        <v>-0.196748425840072</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.995266329168523</v>
+        <v>0.779507372231008</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.389451486772822</v>
+        <v>-0.658421106297215</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.169180429970639</v>
+        <v>-1.47581246659709</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.930969592208683</v>
+        <v>-0.499463130483582</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.246168615350176</v>
+        <v>0.914018109484001</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.285992966698252</v>
+        <v>-2.26134090634271</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.24667512337218</v>
+        <v>-0.93769173545015</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.217665024140129</v>
+        <v>-1.86338550722894</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.925772265466715</v>
+        <v>0.159570980062183</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.878420096968777</v>
+        <v>0.249813861461161</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.63074352155902</v>
+        <v>-1.15083749200847</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.1766364151793</v>
+        <v>0.964345318309347</v>
       </c>
       <c r="BO3" t="n">
-        <v>-1.23069788974669</v>
+        <v>-0.106287518977335</v>
       </c>
       <c r="BP3" t="n">
-        <v>-1.0338378705075</v>
+        <v>1.72647562347177</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.138614843157677</v>
+        <v>-0.718609335176922</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.304538186003839</v>
+        <v>0.525888478518691</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.28226280097642</v>
+        <v>-1.92202683772105</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.817511672529517</v>
+        <v>0.742479611464312</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.30111457907409</v>
+        <v>-0.166285583679502</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0109511206825596</v>
+        <v>0.0738098345608132</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.296464164870437</v>
+        <v>-1.3455579663909</v>
       </c>
       <c r="BX3" t="n">
-        <v>-0.567982401996455</v>
+        <v>1.61713361140018</v>
       </c>
       <c r="BY3" t="n">
-        <v>-0.0185519305641144</v>
+        <v>1.40303610483421</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-0.382894282021226</v>
+        <v>1.22170381634579</v>
       </c>
       <c r="CA3" t="n">
-        <v>-1.18412012445304</v>
+        <v>-1.13051881707346</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0.423999808280882</v>
+        <v>0.548069153038007</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.809833575504236</v>
+        <v>-0.398375146669138</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.503385231902482</v>
+        <v>0.809742447754296</v>
       </c>
       <c r="CE3" t="n">
-        <v>-0.241906191435448</v>
+        <v>0.6254958484887</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.850862454262712</v>
+        <v>1.03029005359646</v>
       </c>
       <c r="CG3" t="n">
-        <v>-1.21064889248921</v>
+        <v>-0.755006469197137</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.80859974084249</v>
+        <v>-1.11675123866158</v>
       </c>
       <c r="CI3" t="n">
-        <v>-0.586404750345116</v>
+        <v>0.836374153707767</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1.35218875234681</v>
+        <v>-0.0650551124549843</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.383662881596903</v>
+        <v>-1.23758522852793</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.113200103702459</v>
+        <v>0.124714631036099</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0.212392705144231</v>
+        <v>-1.02549531652876</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.553939505013365</v>
+        <v>0.355883924063014</v>
       </c>
       <c r="CO3" t="n">
-        <v>-1.57558011742646</v>
+        <v>-0.501049168898176</v>
       </c>
       <c r="CP3" t="n">
-        <v>-1.94788160374442</v>
+        <v>-0.738968047734293</v>
       </c>
       <c r="CQ3" t="n">
-        <v>1.83313554691248</v>
+        <v>-1.56250434122977</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0.0951579632214284</v>
+        <v>0.441167458430615</v>
       </c>
       <c r="CS3" t="n">
-        <v>-1.25166279220768</v>
+        <v>0.755623923746862</v>
       </c>
       <c r="CT3" t="n">
-        <v>-0.896304829722101</v>
+        <v>3.06745797913983</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.514491056060513</v>
+        <v>0.522293548101198</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.884021300826772</v>
+        <v>0.25974084236291</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.51094362717528</v>
+        <v>-0.732581049568664</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.02709696246076</v>
+        <v>-0.301952570650788</v>
       </c>
       <c r="CY3" t="n">
-        <v>-0.747259069533009</v>
+        <v>-1.17140344386971</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.22706821720694</v>
+        <v>-0.834719014350534</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.41686831744985</v>
+        <v>0.727832964950821</v>
       </c>
       <c r="DB3" t="n">
-        <v>-0.118301780037234</v>
+        <v>-1.25433606682528</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.470894069257192</v>
+        <v>-0.906750048193198</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.663816487346768</v>
+        <v>0.554542333239835</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0.21415757330277</v>
+        <v>0.78619333692258</v>
       </c>
       <c r="DF3" t="n">
-        <v>-0.459848497638105</v>
+        <v>0.47213566010998</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.71812235468629</v>
+        <v>-1.37316260243688</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.316718063678516</v>
+        <v>0.126292517366914</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.499132890508678</v>
+        <v>0.417610538581053</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-1.65204154930527</v>
+        <v>0.0300703338252961</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.480316674074578</v>
+        <v>0.106230372111521</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0982442814598733</v>
+        <v>0.686703969070516</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.433324288993019</v>
+        <v>1.59204053698958</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.181545300906257</v>
+        <v>0.575701862158515</v>
       </c>
       <c r="DO3" t="n">
-        <v>-0.592444733833604</v>
+        <v>-0.691269069795392</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.881410337717625</v>
+        <v>0.556847450408068</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1.61874166366237</v>
+        <v>-0.509324415491941</v>
       </c>
       <c r="DR3" t="n">
-        <v>-1.39817072994527</v>
+        <v>1.11004023726211</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.96586933293155</v>
+        <v>1.11872555146955</v>
       </c>
       <c r="DT3" t="n">
-        <v>1.17081280135682</v>
+        <v>-0.0518775465232761</v>
       </c>
       <c r="DU3" t="n">
-        <v>1.30073062716606</v>
+        <v>1.24838664410179</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.305434178893301</v>
+        <v>-1.77707769459237</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0.17511203072137</v>
+        <v>2.02461167562313</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.807603288825539</v>
+        <v>0.490930375043142</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.15323876987492</v>
+        <v>-1.37431440019779</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.312905372847166</v>
+        <v>1.43386426813815</v>
       </c>
       <c r="EA3" t="n">
-        <v>1.85798169219929</v>
+        <v>1.02259640942289</v>
       </c>
       <c r="EB3" t="n">
-        <v>-0.0839648623688473</v>
+        <v>-1.48572936022382</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.11270820253822</v>
+        <v>-0.66116302497981</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.48369792639572</v>
+        <v>0.46122875264959</v>
       </c>
       <c r="EE3" t="n">
-        <v>2.17241793104405</v>
+        <v>-1.07773680356018</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.922098087761367</v>
+        <v>-0.602518781842508</v>
       </c>
       <c r="EG3" t="n">
-        <v>1.37446608770954</v>
+        <v>-0.419784154443682</v>
       </c>
       <c r="EH3" t="n">
-        <v>-0.163229606528869</v>
+        <v>0.290421764476014</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.97863287084843</v>
+        <v>-0.503216520768691</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.36621376863956</v>
+        <v>-1.0702498295299</v>
       </c>
       <c r="EK3" t="n">
-        <v>-0.388637396479369</v>
+        <v>0.900867140328612</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.53608253275722</v>
+        <v>-1.09801484985683</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0.244641401943585</v>
+        <v>-0.860573573101714</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.895772697258665</v>
+        <v>-0.427288175784229</v>
       </c>
       <c r="EO3" t="n">
-        <v>-1.17681489155258</v>
+        <v>-1.66964290011612</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.664002016586074</v>
+        <v>-1.46578838351117</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.21561275200363</v>
+        <v>-0.623140396911792</v>
       </c>
       <c r="ER3" t="n">
-        <v>-1.47935960756269</v>
+        <v>1.27750146887642</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.57178084325556</v>
+        <v>-0.623196292509955</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.774855220124184</v>
+        <v>0.351470278302243</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.306758002305083</v>
+        <v>1.10003117195394</v>
       </c>
       <c r="EV3" t="n">
-        <v>-1.13801570441883</v>
+        <v>-1.33183961166121</v>
       </c>
       <c r="EW3" t="n">
-        <v>-1.49379349887889</v>
+        <v>-0.740645974995063</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.27913552961091</v>
+        <v>-0.141457480709139</v>
       </c>
       <c r="EY3" t="n">
-        <v>-0.0150893602992021</v>
+        <v>-1.258910473348</v>
       </c>
       <c r="EZ3" t="n">
-        <v>1.59446389563517</v>
+        <v>-0.102763919737861</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.236070189046563</v>
+        <v>-0.0572043456701757</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.2704765915653</v>
+        <v>0.71332320535057</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.637028311547179</v>
+        <v>0.144277127360063</v>
       </c>
       <c r="FD3" t="n">
-        <v>-1.09641328160677</v>
+        <v>-0.568798480918697</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.744244094438844</v>
+        <v>0.191361538614509</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.12335129279954</v>
+        <v>-0.877207050738314</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.460707047461348</v>
+        <v>0.506302184841861</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0.960288437810529</v>
+        <v>0.466980170932401</v>
       </c>
       <c r="FI3" t="n">
-        <v>2.01917654999847</v>
+        <v>1.38277738495679</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.21029828254867</v>
+        <v>-0.804668681895958</v>
       </c>
       <c r="FK3" t="n">
         <v>0</v>
@@ -2542,49 +2542,49 @@
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW3" t="n">
         <v>1</v>
       </c>
-      <c r="FQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0</v>
-      </c>
       <c r="FX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
         <v>1</v>
       </c>
       <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
         <v>1</v>
       </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
       <c r="GB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC3" t="n">
         <v>1</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
       </c>
       <c r="GD3" t="n">
         <v>0</v>
@@ -2595,502 +2595,502 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.411392979671012</v>
+        <v>1.13666680179186</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.683782397721073</v>
+        <v>-2.35119705466424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.246767566095448</v>
+        <v>-0.887010690401842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.289783190465829</v>
+        <v>0.449019299635341</v>
       </c>
       <c r="E4" t="n">
-        <v>0.819083546032101</v>
+        <v>-0.0832933124845777</v>
       </c>
       <c r="F4" t="n">
-        <v>0.682940955405569</v>
+        <v>-0.427360787692115</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46725657434548</v>
+        <v>-0.280465267576499</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.463798588928585</v>
+        <v>0.151310186496133</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0944341434076045</v>
+        <v>0.753866934030619</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.29821053011125</v>
+        <v>-2.27430442248833</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83973677938932</v>
+        <v>-0.439288484158712</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.10520086631194</v>
+        <v>0.198384577178043</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.967289912119135</v>
+        <v>0.292177330863661</v>
       </c>
       <c r="N4" t="n">
-        <v>0.971657762130297</v>
+        <v>0.511850065593618</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.845331642025496</v>
+        <v>0.150511535670752</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.910908740480939</v>
+        <v>0.074119048106811</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.252078540269054</v>
+        <v>-0.797400773940614</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41189210352178</v>
+        <v>1.12023171352225</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.696465671410467</v>
+        <v>0.953621028726685</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.159101433232435</v>
+        <v>-0.382921483356675</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.810592157303737</v>
+        <v>-1.22488035493321</v>
       </c>
       <c r="V4" t="n">
-        <v>0.577005504695685</v>
+        <v>-0.363234311981111</v>
       </c>
       <c r="W4" t="n">
-        <v>0.122276711038231</v>
+        <v>1.32480859263773</v>
       </c>
       <c r="X4" t="n">
-        <v>0.719186797970971</v>
+        <v>1.66358275943752</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.417160558386132</v>
+        <v>-1.0031150709828</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.422954671214157</v>
+        <v>0.649329419213342</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.30995512325777</v>
+        <v>1.95895013992619</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.308916814664123</v>
+        <v>-0.362092974664288</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.424643507444538</v>
+        <v>-1.50161105819548</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.276185373970928</v>
+        <v>-0.436599876809796</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.599685235844788</v>
+        <v>1.19619377543855</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.176458902370023</v>
+        <v>-0.0283790256323744</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.627902134170284</v>
+        <v>-0.197787429805188</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.490026785429286</v>
+        <v>0.468002577652675</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.229853546885546</v>
+        <v>-1.49731549289403</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.359695257523331</v>
+        <v>-0.312977209673034</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.220988393334509</v>
+        <v>-0.521921093356958</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.47781183775408</v>
+        <v>-1.27601357842555</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.290931227274021</v>
+        <v>1.5018188458285</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.176189453420915</v>
+        <v>0.84381493473559</v>
       </c>
       <c r="AO4" t="n">
-        <v>-1.50111735472419</v>
+        <v>-1.60046223031703</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.90801012203152</v>
+        <v>-0.991235485506036</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.84977924274213</v>
+        <v>-0.80711394634561</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1.1447268364195</v>
+        <v>0.896652276067135</v>
       </c>
       <c r="AS4" t="n">
-        <v>-1.2736905884031</v>
+        <v>-0.635559390719523</v>
       </c>
       <c r="AT4" t="n">
-        <v>-1.17195858095125</v>
+        <v>0.318101638222688</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.175229072762848</v>
+        <v>-0.224803291058385</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.057682345651557</v>
+        <v>1.44261021397426</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.366999339204725</v>
+        <v>0.0158645693935628</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.983538640378857</v>
+        <v>0.423222500310044</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.353468531646709</v>
+        <v>1.40829903446773</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.296141662052649</v>
+        <v>-1.45426611121227</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.716336883015483</v>
+        <v>0.456939128432771</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.565422413747279</v>
+        <v>-0.196748425840072</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.995266329168523</v>
+        <v>0.779507372231008</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.389451486772822</v>
+        <v>-0.658421106297215</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.169180429970639</v>
+        <v>-1.47581246659709</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.930969592208683</v>
+        <v>-0.499463130483582</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.246168615350176</v>
+        <v>0.914018109484001</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.285992966698252</v>
+        <v>-2.26134090634271</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.24667512337218</v>
+        <v>-0.93769173545015</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.217665024140129</v>
+        <v>-1.86338550722894</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.925772265466715</v>
+        <v>0.159570980062183</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.878420096968777</v>
+        <v>0.249813861461161</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0.63074352155902</v>
+        <v>-1.15083749200847</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.1766364151793</v>
+        <v>0.964345318309347</v>
       </c>
       <c r="BO4" t="n">
-        <v>-1.23069788974669</v>
+        <v>-0.106287518977335</v>
       </c>
       <c r="BP4" t="n">
-        <v>-1.0338378705075</v>
+        <v>1.72647562347177</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.138614843157677</v>
+        <v>-0.718609335176922</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.304538186003839</v>
+        <v>0.525888478518691</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.28226280097642</v>
+        <v>-1.92202683772105</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.817511672529517</v>
+        <v>0.742479611464312</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.30111457907409</v>
+        <v>-0.166285583679502</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.0109511206825596</v>
+        <v>0.0738098345608132</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.296464164870437</v>
+        <v>-1.3455579663909</v>
       </c>
       <c r="BX4" t="n">
-        <v>-0.567982401996455</v>
+        <v>1.61713361140018</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.0185519305641144</v>
+        <v>1.40303610483421</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0.382894282021226</v>
+        <v>1.22170381634579</v>
       </c>
       <c r="CA4" t="n">
-        <v>-1.18412012445304</v>
+        <v>-1.13051881707346</v>
       </c>
       <c r="CB4" t="n">
-        <v>-0.423999808280882</v>
+        <v>0.548069153038007</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.809833575504236</v>
+        <v>-0.398375146669138</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.503385231902482</v>
+        <v>0.809742447754296</v>
       </c>
       <c r="CE4" t="n">
-        <v>-0.241906191435448</v>
+        <v>0.6254958484887</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.850862454262712</v>
+        <v>1.03029005359646</v>
       </c>
       <c r="CG4" t="n">
-        <v>-1.21064889248921</v>
+        <v>-0.755006469197137</v>
       </c>
       <c r="CH4" t="n">
-        <v>1.80859974084249</v>
+        <v>-1.11675123866158</v>
       </c>
       <c r="CI4" t="n">
-        <v>-0.586404750345116</v>
+        <v>0.836374153707767</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.35218875234681</v>
+        <v>-0.0650551124549843</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.383662881596903</v>
+        <v>-1.23758522852793</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.113200103702459</v>
+        <v>0.124714631036099</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0.212392705144231</v>
+        <v>-1.02549531652876</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.553939505013365</v>
+        <v>0.355883924063014</v>
       </c>
       <c r="CO4" t="n">
-        <v>-1.57558011742646</v>
+        <v>-0.501049168898176</v>
       </c>
       <c r="CP4" t="n">
-        <v>-1.94788160374442</v>
+        <v>-0.738968047734293</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.83313554691248</v>
+        <v>-1.56250434122977</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0.0951579632214284</v>
+        <v>0.441167458430615</v>
       </c>
       <c r="CS4" t="n">
-        <v>-1.25166279220768</v>
+        <v>0.755623923746862</v>
       </c>
       <c r="CT4" t="n">
-        <v>-0.896304829722101</v>
+        <v>3.06745797913983</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.514491056060513</v>
+        <v>0.522293548101198</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.884021300826772</v>
+        <v>0.25974084236291</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.51094362717528</v>
+        <v>-0.732581049568664</v>
       </c>
       <c r="CX4" t="n">
-        <v>1.02709696246076</v>
+        <v>-0.301952570650788</v>
       </c>
       <c r="CY4" t="n">
-        <v>-0.747259069533009</v>
+        <v>-1.17140344386971</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.22706821720694</v>
+        <v>-0.834719014350534</v>
       </c>
       <c r="DA4" t="n">
-        <v>1.41686831744985</v>
+        <v>0.727832964950821</v>
       </c>
       <c r="DB4" t="n">
-        <v>-0.118301780037234</v>
+        <v>-1.25433606682528</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.470894069257192</v>
+        <v>-0.906750048193198</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.663816487346768</v>
+        <v>0.554542333239835</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0.21415757330277</v>
+        <v>0.78619333692258</v>
       </c>
       <c r="DF4" t="n">
-        <v>-0.459848497638105</v>
+        <v>0.47213566010998</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.71812235468629</v>
+        <v>-1.37316260243688</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.316718063678516</v>
+        <v>0.126292517366914</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.499132890508678</v>
+        <v>0.417610538581053</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-1.65204154930527</v>
+        <v>0.0300703338252961</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.480316674074578</v>
+        <v>0.106230372111521</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.0982442814598733</v>
+        <v>0.686703969070516</v>
       </c>
       <c r="DM4" t="n">
-        <v>-0.433324288993019</v>
+        <v>1.59204053698958</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.181545300906257</v>
+        <v>0.575701862158515</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.592444733833604</v>
+        <v>-0.691269069795392</v>
       </c>
       <c r="DP4" t="n">
-        <v>-0.881410337717625</v>
+        <v>0.556847450408068</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.61874166366237</v>
+        <v>-0.509324415491941</v>
       </c>
       <c r="DR4" t="n">
-        <v>-1.39817072994527</v>
+        <v>1.11004023726211</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.96586933293155</v>
+        <v>1.11872555146955</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.17081280135682</v>
+        <v>-0.0518775465232761</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.30073062716606</v>
+        <v>1.24838664410179</v>
       </c>
       <c r="DV4" t="n">
-        <v>-0.305434178893301</v>
+        <v>-1.77707769459237</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0.17511203072137</v>
+        <v>2.02461167562313</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.807603288825539</v>
+        <v>0.490930375043142</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.15323876987492</v>
+        <v>-1.37431440019779</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.312905372847166</v>
+        <v>1.43386426813815</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.85798169219929</v>
+        <v>1.02259640942289</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.0839648623688473</v>
+        <v>-1.48572936022382</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.11270820253822</v>
+        <v>-0.66116302497981</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.48369792639572</v>
+        <v>0.46122875264959</v>
       </c>
       <c r="EE4" t="n">
-        <v>2.17241793104405</v>
+        <v>-1.07773680356018</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.922098087761367</v>
+        <v>-0.602518781842508</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.37446608770954</v>
+        <v>-0.419784154443682</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.163229606528869</v>
+        <v>0.290421764476014</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.97863287084843</v>
+        <v>-0.503216520768691</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.36621376863956</v>
+        <v>-1.0702498295299</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.388637396479369</v>
+        <v>0.900867140328612</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.53608253275722</v>
+        <v>-1.09801484985683</v>
       </c>
       <c r="EM4" t="n">
-        <v>-0.244641401943585</v>
+        <v>-0.860573573101714</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.895772697258665</v>
+        <v>-0.427288175784229</v>
       </c>
       <c r="EO4" t="n">
-        <v>-1.17681489155258</v>
+        <v>-1.66964290011612</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.664002016586074</v>
+        <v>-1.46578838351117</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.21561275200363</v>
+        <v>-0.623140396911792</v>
       </c>
       <c r="ER4" t="n">
-        <v>-1.47935960756269</v>
+        <v>1.27750146887642</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.57178084325556</v>
+        <v>-0.623196292509955</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.774855220124184</v>
+        <v>0.351470278302243</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.306758002305083</v>
+        <v>1.10003117195394</v>
       </c>
       <c r="EV4" t="n">
-        <v>-1.13801570441883</v>
+        <v>-1.33183961166121</v>
       </c>
       <c r="EW4" t="n">
-        <v>-1.49379349887889</v>
+        <v>-0.740645974995063</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.27913552961091</v>
+        <v>-0.141457480709139</v>
       </c>
       <c r="EY4" t="n">
-        <v>-0.0150893602992021</v>
+        <v>-1.258910473348</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1.59446389563517</v>
+        <v>-0.102763919737861</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.236070189046563</v>
+        <v>-0.0572043456701757</v>
       </c>
       <c r="FB4" t="n">
-        <v>1.2704765915653</v>
+        <v>0.71332320535057</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.637028311547179</v>
+        <v>0.144277127360063</v>
       </c>
       <c r="FD4" t="n">
-        <v>-1.09641328160677</v>
+        <v>-0.568798480918697</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.744244094438844</v>
+        <v>0.191361538614509</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.12335129279954</v>
+        <v>-0.877207050738314</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.460707047461348</v>
+        <v>0.506302184841861</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.960288437810529</v>
+        <v>0.466980170932401</v>
       </c>
       <c r="FI4" t="n">
-        <v>2.01917654999847</v>
+        <v>1.38277738495679</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.21029828254867</v>
+        <v>-0.804668681895958</v>
       </c>
       <c r="FK4" t="n">
         <v>0</v>
@@ -3105,49 +3105,49 @@
         <v>0</v>
       </c>
       <c r="FO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW4" t="n">
         <v>1</v>
       </c>
-      <c r="FQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW4" t="n">
-        <v>0</v>
-      </c>
       <c r="FX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
         <v>1</v>
       </c>
       <c r="FZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA4" t="n">
         <v>1</v>
       </c>
-      <c r="GA4" t="n">
-        <v>0</v>
-      </c>
       <c r="GB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC4" t="n">
         <v>1</v>
-      </c>
-      <c r="GC4" t="n">
-        <v>0</v>
       </c>
       <c r="GD4" t="n">
         <v>0</v>
